--- a/metadata/meta_variables.xlsx
+++ b/metadata/meta_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lina\STATISTIK\Projects\20210525_shfdb4\dm\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D8D016-3DA0-4609-83A4-CC62D05E4C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC082D99-BD3A-4620-AB59-C83B35AC7311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="422">
   <si>
     <t>lopnr</t>
   </si>
@@ -1280,6 +1280,12 @@
   </si>
   <si>
     <t>Composite Death/HFH</t>
+  </si>
+  <si>
+    <t>shf_bmiimp_cat</t>
+  </si>
+  <si>
+    <t>BMI (imputed)</t>
   </si>
 </sst>
 </file>
@@ -1646,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:E197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2721,7 +2727,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="C95" t="s">
         <v>331</v>
@@ -2816,219 +2822,219 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>420</v>
       </c>
       <c r="B105" t="s">
-        <v>256</v>
+        <v>421</v>
       </c>
       <c r="C105" t="s">
-        <v>257</v>
+        <v>331</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>316</v>
-      </c>
-      <c r="C106" s="3"/>
+        <v>256</v>
+      </c>
+      <c r="C106" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>404</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>314</v>
-      </c>
-      <c r="C108" s="3"/>
+        <v>404</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>309</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>335</v>
-      </c>
-      <c r="E113" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>337</v>
+        <v>335</v>
+      </c>
+      <c r="E114" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>339</v>
-      </c>
-      <c r="E116" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E117" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>343</v>
-      </c>
-      <c r="C118" t="s">
-        <v>344</v>
+        <v>341</v>
+      </c>
+      <c r="E118" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>345</v>
+        <v>343</v>
+      </c>
+      <c r="C119" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>230</v>
-      </c>
-      <c r="C120" t="s">
-        <v>206</v>
-      </c>
-      <c r="E120" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="C121" t="s">
         <v>206</v>
       </c>
       <c r="E121" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>224</v>
+        <v>346</v>
+      </c>
+      <c r="C122" t="s">
+        <v>206</v>
       </c>
       <c r="E122" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>314</v>
+        <v>224</v>
       </c>
       <c r="E123" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E124" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="E125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E126" t="s">
         <v>400</v>
@@ -3036,10 +3042,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E127" t="s">
         <v>400</v>
@@ -3047,10 +3053,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E128" t="s">
         <v>400</v>
@@ -3058,10 +3064,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E129" t="s">
         <v>400</v>
@@ -3069,54 +3075,54 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="E130" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="E131" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="E132" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E133" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E134" t="s">
         <v>400</v>
@@ -3124,10 +3130,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E135" t="s">
         <v>400</v>
@@ -3135,10 +3141,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E136" t="s">
         <v>400</v>
@@ -3146,10 +3152,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E137" t="s">
         <v>400</v>
@@ -3157,10 +3163,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E138" t="s">
         <v>400</v>
@@ -3168,10 +3174,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E139" t="s">
         <v>400</v>
@@ -3179,10 +3185,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E140" t="s">
         <v>400</v>
@@ -3190,10 +3196,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E141" t="s">
         <v>400</v>
@@ -3201,10 +3207,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E142" t="s">
         <v>400</v>
@@ -3212,10 +3218,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E143" t="s">
         <v>400</v>
@@ -3223,10 +3229,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E144" t="s">
         <v>400</v>
@@ -3234,10 +3240,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E145" t="s">
         <v>400</v>
@@ -3245,10 +3251,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E146" t="s">
         <v>400</v>
@@ -3256,10 +3262,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E147" t="s">
         <v>400</v>
@@ -3267,10 +3273,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E148" t="s">
         <v>400</v>
@@ -3278,10 +3284,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E149" t="s">
         <v>400</v>
@@ -3289,10 +3295,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E150" t="s">
         <v>400</v>
@@ -3300,10 +3306,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E151" t="s">
         <v>400</v>
@@ -3311,10 +3317,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>150</v>
-      </c>
-      <c r="C152" t="s">
-        <v>206</v>
+        <v>149</v>
+      </c>
+      <c r="B152" t="s">
+        <v>372</v>
       </c>
       <c r="E152" t="s">
         <v>400</v>
@@ -3322,10 +3328,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>151</v>
-      </c>
-      <c r="B153" t="s">
-        <v>373</v>
+        <v>150</v>
+      </c>
+      <c r="C153" t="s">
+        <v>206</v>
       </c>
       <c r="E153" t="s">
         <v>400</v>
@@ -3333,10 +3339,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E154" t="s">
         <v>400</v>
@@ -3344,10 +3350,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>153</v>
-      </c>
-      <c r="C155" t="s">
-        <v>206</v>
+        <v>152</v>
+      </c>
+      <c r="B155" t="s">
+        <v>374</v>
       </c>
       <c r="E155" t="s">
         <v>400</v>
@@ -3355,10 +3361,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>154</v>
-      </c>
-      <c r="B156" t="s">
-        <v>375</v>
+        <v>153</v>
+      </c>
+      <c r="C156" t="s">
+        <v>206</v>
       </c>
       <c r="E156" t="s">
         <v>400</v>
@@ -3366,10 +3372,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>155</v>
-      </c>
-      <c r="C157" t="s">
-        <v>206</v>
+        <v>154</v>
+      </c>
+      <c r="B157" t="s">
+        <v>375</v>
       </c>
       <c r="E157" t="s">
         <v>400</v>
@@ -3377,10 +3383,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>376</v>
+        <v>155</v>
+      </c>
+      <c r="C158" t="s">
+        <v>206</v>
       </c>
       <c r="E158" t="s">
         <v>400</v>
@@ -3388,10 +3394,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>157</v>
-      </c>
-      <c r="C159" t="s">
-        <v>206</v>
+        <v>156</v>
+      </c>
+      <c r="B159" t="s">
+        <v>376</v>
       </c>
       <c r="E159" t="s">
         <v>400</v>
@@ -3399,10 +3405,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>377</v>
+        <v>157</v>
+      </c>
+      <c r="C160" t="s">
+        <v>206</v>
       </c>
       <c r="E160" t="s">
         <v>400</v>
@@ -3410,10 +3416,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>159</v>
-      </c>
-      <c r="C161" t="s">
-        <v>206</v>
+        <v>158</v>
+      </c>
+      <c r="B161" t="s">
+        <v>377</v>
       </c>
       <c r="E161" t="s">
         <v>400</v>
@@ -3421,10 +3427,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>378</v>
+        <v>159</v>
+      </c>
+      <c r="C162" t="s">
+        <v>206</v>
       </c>
       <c r="E162" t="s">
         <v>400</v>
@@ -3432,10 +3438,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>161</v>
-      </c>
-      <c r="C163" t="s">
-        <v>206</v>
+        <v>160</v>
+      </c>
+      <c r="B163" t="s">
+        <v>378</v>
       </c>
       <c r="E163" t="s">
         <v>400</v>
@@ -3443,10 +3449,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>162</v>
-      </c>
-      <c r="B164" t="s">
-        <v>379</v>
+        <v>161</v>
+      </c>
+      <c r="C164" t="s">
+        <v>206</v>
       </c>
       <c r="E164" t="s">
         <v>400</v>
@@ -3454,10 +3460,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>163</v>
-      </c>
-      <c r="C165" t="s">
-        <v>206</v>
+        <v>162</v>
+      </c>
+      <c r="B165" t="s">
+        <v>379</v>
       </c>
       <c r="E165" t="s">
         <v>400</v>
@@ -3465,10 +3471,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>164</v>
-      </c>
-      <c r="B166" t="s">
-        <v>380</v>
+        <v>163</v>
+      </c>
+      <c r="C166" t="s">
+        <v>206</v>
       </c>
       <c r="E166" t="s">
         <v>400</v>
@@ -3476,10 +3482,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>165</v>
-      </c>
-      <c r="C167" t="s">
-        <v>206</v>
+        <v>164</v>
+      </c>
+      <c r="B167" t="s">
+        <v>380</v>
       </c>
       <c r="E167" t="s">
         <v>400</v>
@@ -3487,7 +3493,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C168" t="s">
         <v>206</v>
@@ -3498,10 +3504,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>167</v>
-      </c>
-      <c r="B169" t="s">
-        <v>381</v>
+        <v>166</v>
+      </c>
+      <c r="C169" t="s">
+        <v>206</v>
       </c>
       <c r="E169" t="s">
         <v>400</v>
@@ -3509,10 +3515,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>168</v>
-      </c>
-      <c r="C170" t="s">
-        <v>206</v>
+        <v>167</v>
+      </c>
+      <c r="B170" t="s">
+        <v>381</v>
       </c>
       <c r="E170" t="s">
         <v>400</v>
@@ -3520,10 +3526,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>169</v>
-      </c>
-      <c r="B171" t="s">
-        <v>382</v>
+        <v>168</v>
+      </c>
+      <c r="C171" t="s">
+        <v>206</v>
       </c>
       <c r="E171" t="s">
         <v>400</v>
@@ -3531,10 +3537,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>170</v>
-      </c>
-      <c r="C172" t="s">
-        <v>206</v>
+        <v>169</v>
+      </c>
+      <c r="B172" t="s">
+        <v>382</v>
       </c>
       <c r="E172" t="s">
         <v>400</v>
@@ -3542,10 +3548,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>171</v>
-      </c>
-      <c r="B173" t="s">
-        <v>383</v>
+        <v>170</v>
+      </c>
+      <c r="C173" t="s">
+        <v>206</v>
       </c>
       <c r="E173" t="s">
         <v>400</v>
@@ -3553,10 +3559,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>172</v>
-      </c>
-      <c r="C174" t="s">
-        <v>206</v>
+        <v>171</v>
+      </c>
+      <c r="B174" t="s">
+        <v>383</v>
       </c>
       <c r="E174" t="s">
         <v>400</v>
@@ -3564,10 +3570,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>173</v>
-      </c>
-      <c r="B175" t="s">
-        <v>384</v>
+        <v>172</v>
+      </c>
+      <c r="C175" t="s">
+        <v>206</v>
       </c>
       <c r="E175" t="s">
         <v>400</v>
@@ -3575,10 +3581,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>174</v>
-      </c>
-      <c r="C176" t="s">
-        <v>206</v>
+        <v>173</v>
+      </c>
+      <c r="B176" t="s">
+        <v>384</v>
       </c>
       <c r="E176" t="s">
         <v>400</v>
@@ -3586,10 +3592,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>385</v>
+        <v>174</v>
+      </c>
+      <c r="C177" t="s">
+        <v>206</v>
       </c>
       <c r="E177" t="s">
         <v>400</v>
@@ -3597,10 +3603,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>176</v>
-      </c>
-      <c r="C178" t="s">
-        <v>206</v>
+        <v>175</v>
+      </c>
+      <c r="B178" t="s">
+        <v>385</v>
       </c>
       <c r="E178" t="s">
         <v>400</v>
@@ -3608,10 +3614,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>177</v>
-      </c>
-      <c r="B179" t="s">
-        <v>386</v>
+        <v>176</v>
+      </c>
+      <c r="C179" t="s">
+        <v>206</v>
       </c>
       <c r="E179" t="s">
         <v>400</v>
@@ -3619,10 +3625,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>178</v>
-      </c>
-      <c r="C180" t="s">
-        <v>206</v>
+        <v>177</v>
+      </c>
+      <c r="B180" t="s">
+        <v>386</v>
       </c>
       <c r="E180" t="s">
         <v>400</v>
@@ -3630,10 +3636,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>179</v>
-      </c>
-      <c r="B181" t="s">
-        <v>387</v>
+        <v>178</v>
+      </c>
+      <c r="C181" t="s">
+        <v>206</v>
       </c>
       <c r="E181" t="s">
         <v>400</v>
@@ -3641,10 +3647,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>180</v>
-      </c>
-      <c r="C182" t="s">
-        <v>206</v>
+        <v>179</v>
+      </c>
+      <c r="B182" t="s">
+        <v>387</v>
       </c>
       <c r="E182" t="s">
         <v>400</v>
@@ -3652,10 +3658,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>181</v>
-      </c>
-      <c r="B183" t="s">
-        <v>388</v>
+        <v>180</v>
+      </c>
+      <c r="C183" t="s">
+        <v>206</v>
       </c>
       <c r="E183" t="s">
         <v>400</v>
@@ -3663,10 +3669,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>182</v>
-      </c>
-      <c r="C184" t="s">
-        <v>206</v>
+        <v>181</v>
+      </c>
+      <c r="B184" t="s">
+        <v>388</v>
       </c>
       <c r="E184" t="s">
         <v>400</v>
@@ -3674,10 +3680,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>183</v>
-      </c>
-      <c r="B185" t="s">
-        <v>389</v>
+        <v>182</v>
+      </c>
+      <c r="C185" t="s">
+        <v>206</v>
       </c>
       <c r="E185" t="s">
         <v>400</v>
@@ -3685,10 +3691,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>184</v>
-      </c>
-      <c r="C186" t="s">
-        <v>206</v>
+        <v>183</v>
+      </c>
+      <c r="B186" t="s">
+        <v>389</v>
       </c>
       <c r="E186" t="s">
         <v>400</v>
@@ -3696,10 +3702,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>185</v>
-      </c>
-      <c r="B187" t="s">
-        <v>390</v>
+        <v>184</v>
+      </c>
+      <c r="C187" t="s">
+        <v>206</v>
       </c>
       <c r="E187" t="s">
         <v>400</v>
@@ -3707,10 +3713,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>186</v>
-      </c>
-      <c r="C188" t="s">
-        <v>206</v>
+        <v>185</v>
+      </c>
+      <c r="B188" t="s">
+        <v>390</v>
       </c>
       <c r="E188" t="s">
         <v>400</v>
@@ -3718,10 +3724,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>187</v>
-      </c>
-      <c r="B189" t="s">
-        <v>391</v>
+        <v>186</v>
+      </c>
+      <c r="C189" t="s">
+        <v>206</v>
       </c>
       <c r="E189" t="s">
         <v>400</v>
@@ -3729,10 +3735,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>188</v>
-      </c>
-      <c r="C190" t="s">
-        <v>206</v>
+        <v>187</v>
+      </c>
+      <c r="B190" t="s">
+        <v>391</v>
       </c>
       <c r="E190" t="s">
         <v>400</v>
@@ -3740,10 +3746,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>189</v>
-      </c>
-      <c r="B191" t="s">
-        <v>392</v>
+        <v>188</v>
+      </c>
+      <c r="C191" t="s">
+        <v>206</v>
       </c>
       <c r="E191" t="s">
         <v>400</v>
@@ -3751,10 +3757,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E192" t="s">
         <v>400</v>
@@ -3762,10 +3768,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E193" t="s">
         <v>400</v>
@@ -3773,25 +3779,36 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>418</v>
+        <v>394</v>
+      </c>
+      <c r="E194" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>194</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>395</v>
       </c>
     </row>

--- a/metadata/meta_variables.xlsx
+++ b/metadata/meta_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lina\STATISTIK\Projects\20210525_shfdb4\dm\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC082D99-BD3A-4620-AB59-C83B35AC7311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E66755-0718-4277-807C-2E090504CB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="424">
   <si>
     <t>lopnr</t>
   </si>
@@ -427,9 +427,6 @@
     <t>sos_com_valvular</t>
   </si>
   <si>
-    <t>sos_com_kidney</t>
-  </si>
-  <si>
     <t>sos_com_hyperkalemia</t>
   </si>
   <si>
@@ -535,9 +532,6 @@
     <t>sos_outtime_hosppneumonia</t>
   </si>
   <si>
-    <t>sos_out_hospkidney</t>
-  </si>
-  <si>
     <t>sos_outtime_hospkidney</t>
   </si>
   <si>
@@ -763,9 +757,6 @@
     <t>beats/min</t>
   </si>
   <si>
-    <t>Hb</t>
-  </si>
-  <si>
     <t>g/L</t>
   </si>
   <si>
@@ -1096,196 +1087,211 @@
     <t>Valvular disease</t>
   </si>
   <si>
+    <t>Hyperkalemia</t>
+  </si>
+  <si>
+    <t>Hypokalemia</t>
+  </si>
+  <si>
+    <t>Dialysis</t>
+  </si>
+  <si>
+    <t>COPD</t>
+  </si>
+  <si>
+    <t>Liver disease</t>
+  </si>
+  <si>
+    <t>Obstructive sleep apnea</t>
+  </si>
+  <si>
+    <t>Dementia</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Alcohol abuse</t>
+  </si>
+  <si>
+    <t>Severe bleeding</t>
+  </si>
+  <si>
+    <t>Charlson comorbidity Index</t>
+  </si>
+  <si>
+    <t>Heart failure hospitalization</t>
+  </si>
+  <si>
+    <t>Number of heart failure hospitalizations</t>
+  </si>
+  <si>
+    <t>Any hospitalization</t>
+  </si>
+  <si>
+    <t>CV hospitalization</t>
+  </si>
+  <si>
+    <t>Non-CV hospitalization</t>
+  </si>
+  <si>
+    <t>Stroke/TIA hospitalization</t>
+  </si>
+  <si>
+    <t>Myocardial infarction hospitalization</t>
+  </si>
+  <si>
+    <t>Ischemic heart disease hospitalization</t>
+  </si>
+  <si>
+    <t>Ventricular fibrillation/tachycardia hospitalization</t>
+  </si>
+  <si>
+    <t>Pneumonia/Flue/Respiratory infection hospitalization</t>
+  </si>
+  <si>
+    <t>Pneumonia hospitalization</t>
+  </si>
+  <si>
+    <t>Malignant cancer hospitalization</t>
+  </si>
+  <si>
+    <t>Severe bleeding hospitalization</t>
+  </si>
+  <si>
+    <t>Hyperkalemia hospitalization</t>
+  </si>
+  <si>
+    <t>Hypokalemia hospitalization</t>
+  </si>
+  <si>
+    <t>Syncope hospitalization</t>
+  </si>
+  <si>
+    <t>Trauma hospitalization</t>
+  </si>
+  <si>
+    <t>Coronary revascularization</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>CV death</t>
+  </si>
+  <si>
+    <t>Non-CV death</t>
+  </si>
+  <si>
+    <t>Hospitalization or death Sudden cardiac death</t>
+  </si>
+  <si>
+    <t>Underlying cause of death (ULORSAK)</t>
+  </si>
+  <si>
+    <t>ICD-codes see https://kiheartfailure.github.io/shfdb4/definitions/. Time since hosp/visit (date of discharge (in-pat)/visit date (out-pat)) in any DIA position to shf_indexdtm. Note that dates in NPR and SwedeHF can differ slightly so caution should be used when looking at small durations. Also see shf_durationhf</t>
+  </si>
+  <si>
+    <t>ICD-codes see https://kiheartfailure.github.io/shfdb4/definitions/. Time since hosp (date of discharge) in any HDIA position to shf_indexdtm. Note that dates in NPR and SwedeHF can differ slightly so caution should be used when looking at small durations. If sos_location = "HF in-patient" it is set to 0</t>
+  </si>
+  <si>
+    <t>ICD-codes see https://kiheartfailure.github.io/shfdb4/definitions/. Also see shf_hypertension</t>
+  </si>
+  <si>
+    <t>ICD-codes see https://kiheartfailure.github.io/shfdb4/definitions/. Also see shf_diabetes</t>
+  </si>
+  <si>
+    <t>ICD-codes see https://kiheartfailure.github.io/shfdb4/definitions/</t>
+  </si>
+  <si>
+    <t>ICD-codes see https://kiheartfailure.github.io/shfdb4/definitions/. Also see shf_dcm</t>
+  </si>
+  <si>
+    <t>ICD-codes see https://kiheartfailure.github.io/shfdb4/definitions/. Also see shf_af</t>
+  </si>
+  <si>
+    <t>Anemia</t>
+  </si>
+  <si>
+    <t>IHD</t>
+  </si>
+  <si>
+    <t>Type of visit</t>
+  </si>
+  <si>
+    <t>LVEF (original)</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Killip class</t>
+  </si>
+  <si>
+    <t>Loop diuretic IV</t>
+  </si>
+  <si>
+    <t>Date Loop diuretic IV</t>
+  </si>
+  <si>
+    <t>Date Ferric carboxymaltose IV</t>
+  </si>
+  <si>
+    <t>Unplanned inotrope support</t>
+  </si>
+  <si>
+    <t>SGLT2i</t>
+  </si>
+  <si>
+    <t>SGLT2i dose</t>
+  </si>
+  <si>
+    <t>SGLT2i substance</t>
+  </si>
+  <si>
+    <t>2021-04-28-</t>
+  </si>
+  <si>
+    <t>Sinus node inhibitor</t>
+  </si>
+  <si>
+    <t>Composite CVD/HFH</t>
+  </si>
+  <si>
+    <t>Composite Death/HFH</t>
+  </si>
+  <si>
+    <t>shf_bmiimp_cat</t>
+  </si>
+  <si>
+    <t>BMI (imputed)</t>
+  </si>
+  <si>
+    <t>Hemoglobin</t>
+  </si>
+  <si>
+    <t>Malignant cancer within 3 years</t>
+  </si>
+  <si>
+    <t>Muscoloskeletal/connective tissue diseases within 3 years</t>
+  </si>
+  <si>
+    <t>sos_com_renal</t>
+  </si>
+  <si>
     <t>Renal failure</t>
   </si>
   <si>
-    <t>Hyperkalemia</t>
-  </si>
-  <si>
-    <t>Hypokalemia</t>
-  </si>
-  <si>
-    <t>Dialysis</t>
-  </si>
-  <si>
-    <t>COPD</t>
-  </si>
-  <si>
-    <t>Liver disease</t>
-  </si>
-  <si>
-    <t>Obstructive sleep apnea</t>
-  </si>
-  <si>
-    <t>Dementia</t>
-  </si>
-  <si>
-    <t>Depression</t>
-  </si>
-  <si>
-    <t>Malignant cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muscoloskeletal/connective tissue diseases </t>
-  </si>
-  <si>
-    <t>Alcohol abuse</t>
-  </si>
-  <si>
-    <t>Severe bleeding</t>
-  </si>
-  <si>
-    <t>Charlson comorbidity Index</t>
-  </si>
-  <si>
-    <t>Heart failure hospitalization</t>
-  </si>
-  <si>
-    <t>Number of heart failure hospitalizations</t>
-  </si>
-  <si>
-    <t>Any hospitalization</t>
-  </si>
-  <si>
-    <t>CV hospitalization</t>
-  </si>
-  <si>
-    <t>Non-CV hospitalization</t>
-  </si>
-  <si>
-    <t>Stroke/TIA hospitalization</t>
-  </si>
-  <si>
-    <t>Myocardial infarction hospitalization</t>
-  </si>
-  <si>
-    <t>Ischemic heart disease hospitalization</t>
-  </si>
-  <si>
-    <t>Ventricular fibrillation/tachycardia hospitalization</t>
-  </si>
-  <si>
-    <t>Pneumonia/Flue/Respiratory infection hospitalization</t>
-  </si>
-  <si>
-    <t>Pneumonia hospitalization</t>
-  </si>
-  <si>
-    <t>Renal Failure hospitalization</t>
-  </si>
-  <si>
-    <t>Malignant cancer hospitalization</t>
-  </si>
-  <si>
-    <t>Severe bleeding hospitalization</t>
-  </si>
-  <si>
-    <t>Hyperkalemia hospitalization</t>
-  </si>
-  <si>
-    <t>Hypokalemia hospitalization</t>
-  </si>
-  <si>
-    <t>Syncope hospitalization</t>
-  </si>
-  <si>
-    <t>Trauma hospitalization</t>
-  </si>
-  <si>
-    <t>Coronary revascularization</t>
-  </si>
-  <si>
-    <t>Death</t>
-  </si>
-  <si>
-    <t>CV death</t>
-  </si>
-  <si>
-    <t>Non-CV death</t>
-  </si>
-  <si>
-    <t>Hospitalization or death Sudden cardiac death</t>
-  </si>
-  <si>
-    <t>Underlying cause of death (ULORSAK)</t>
-  </si>
-  <si>
-    <t>ICD-codes see https://kiheartfailure.github.io/shfdb4/definitions/. Time since hosp/visit (date of discharge (in-pat)/visit date (out-pat)) in any DIA position to shf_indexdtm. Note that dates in NPR and SwedeHF can differ slightly so caution should be used when looking at small durations. Also see shf_durationhf</t>
-  </si>
-  <si>
-    <t>ICD-codes see https://kiheartfailure.github.io/shfdb4/definitions/. Time since hosp (date of discharge) in any HDIA position to shf_indexdtm. Note that dates in NPR and SwedeHF can differ slightly so caution should be used when looking at small durations. If sos_location = "HF in-patient" it is set to 0</t>
-  </si>
-  <si>
-    <t>ICD-codes see https://kiheartfailure.github.io/shfdb4/definitions/. Also see shf_hypertension</t>
-  </si>
-  <si>
-    <t>ICD-codes see https://kiheartfailure.github.io/shfdb4/definitions/. Also see shf_diabetes</t>
-  </si>
-  <si>
-    <t>ICD-codes see https://kiheartfailure.github.io/shfdb4/definitions/</t>
-  </si>
-  <si>
-    <t>ICD-codes see https://kiheartfailure.github.io/shfdb4/definitions/. Also see shf_dcm</t>
-  </si>
-  <si>
-    <t>ICD-codes see https://kiheartfailure.github.io/shfdb4/definitions/. Also see shf_af</t>
-  </si>
-  <si>
-    <t>Anemia</t>
-  </si>
-  <si>
-    <t>IHD</t>
-  </si>
-  <si>
-    <t>Type of visit</t>
-  </si>
-  <si>
-    <t>LVEF (original)</t>
-  </si>
-  <si>
-    <t>Alcohol</t>
-  </si>
-  <si>
-    <t>Killip class</t>
-  </si>
-  <si>
-    <t>Loop diuretic IV</t>
-  </si>
-  <si>
-    <t>Date Loop diuretic IV</t>
-  </si>
-  <si>
-    <t>Date Ferric carboxymaltose IV</t>
-  </si>
-  <si>
-    <t>Unplanned inotrope support</t>
-  </si>
-  <si>
-    <t>SGLT2i</t>
-  </si>
-  <si>
-    <t>SGLT2i dose</t>
-  </si>
-  <si>
-    <t>SGLT2i substance</t>
-  </si>
-  <si>
-    <t>2021-04-28-</t>
-  </si>
-  <si>
-    <t>Sinus node inhibitor</t>
-  </si>
-  <si>
-    <t>Composite CVD/HFH</t>
-  </si>
-  <si>
-    <t>Composite Death/HFH</t>
-  </si>
-  <si>
-    <t>shf_bmiimp_cat</t>
-  </si>
-  <si>
-    <t>BMI (imputed)</t>
+    <t>Renal failure hospitalization</t>
+  </si>
+  <si>
+    <t>sos_out_hosprenal</t>
+  </si>
+  <si>
+    <t>sos_com_respiratory</t>
+  </si>
+  <si>
+    <t>Pneumonia/Flue/Respiratory infection</t>
   </si>
 </sst>
 </file>
@@ -1652,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E197"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,19 +1674,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1688,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1696,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1704,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1712,10 +1718,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1723,10 +1729,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1734,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1742,10 +1748,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1753,16 +1759,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" t="s">
         <v>209</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>210</v>
-      </c>
-      <c r="D9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E9" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1770,13 +1776,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1784,16 +1790,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1801,13 +1807,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1815,7 +1821,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1823,10 +1829,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1834,10 +1840,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1845,10 +1851,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1856,10 +1862,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1867,7 +1873,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1875,7 +1881,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1883,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1891,7 +1897,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1899,7 +1905,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1907,13 +1913,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" t="s">
         <v>230</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1921,10 +1927,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1932,7 +1938,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1940,10 +1946,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1951,10 +1957,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1962,13 +1968,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" t="s">
+        <v>237</v>
+      </c>
+      <c r="E28" t="s">
         <v>238</v>
-      </c>
-      <c r="C28" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1976,10 +1982,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1987,10 +1993,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1998,7 +2004,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2006,10 +2012,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2017,10 +2023,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>247</v>
+        <v>415</v>
       </c>
       <c r="C33" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2028,13 +2034,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2042,13 +2048,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C35" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2056,10 +2062,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2068,10 +2074,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2079,10 +2085,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D38" s="3"/>
     </row>
@@ -2091,10 +2097,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2102,13 +2108,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,13 +2122,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2130,13 +2136,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C42" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D42" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2144,10 +2150,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D43" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2155,10 +2161,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2166,10 +2172,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2177,13 +2183,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D46" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E46" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2191,16 +2197,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C47" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D47" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E47" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2208,13 +2214,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D48" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E48" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2222,7 +2228,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2230,7 +2236,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2238,10 +2244,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D51" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2249,7 +2255,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2257,13 +2263,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C53" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2271,10 +2277,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2282,7 +2288,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2290,10 +2296,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D56" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2301,13 +2307,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C57" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E57" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2315,7 +2321,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2323,7 +2329,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2331,13 +2337,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C60" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E60" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2345,10 +2351,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -2357,13 +2363,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C62" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -2372,7 +2378,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2380,7 +2386,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2388,7 +2394,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2396,13 +2402,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C66" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E66" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2410,7 +2416,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2418,10 +2424,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2429,16 +2435,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E69" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2446,7 +2452,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2454,7 +2460,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,10 +2468,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E72" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2473,7 +2479,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2481,7 +2487,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2489,10 +2495,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D75" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2500,10 +2506,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D76" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2511,13 +2517,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C77" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D77" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2525,10 +2531,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D78" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2536,7 +2542,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2544,13 +2550,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D80" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E80" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2558,13 +2564,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E81" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2572,13 +2578,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
+        <v>306</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="E82" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2586,13 +2592,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E83" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2600,13 +2606,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E84" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2614,10 +2620,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2625,10 +2631,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2636,13 +2642,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E87" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2650,13 +2656,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E88" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2664,13 +2670,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E89" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2678,10 +2684,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E90" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2689,7 +2695,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2697,7 +2703,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2705,7 +2711,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2713,13 +2719,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C94" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E94" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2727,13 +2733,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C95" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E95" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2741,7 +2747,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2749,10 +2755,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C97" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2760,7 +2766,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2768,7 +2774,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2776,7 +2782,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2784,10 +2790,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2795,10 +2801,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C102" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2806,7 +2812,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2814,21 +2820,21 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C104" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B105" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C105" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2836,10 +2842,10 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C106" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,7 +2853,7 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C107" s="3"/>
     </row>
@@ -2856,7 +2862,7 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2864,7 +2870,7 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C109" s="3"/>
     </row>
@@ -2873,7 +2879,7 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2881,7 +2887,7 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2889,7 +2895,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2897,7 +2903,7 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2905,10 +2911,10 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E114" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2916,7 +2922,7 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2924,7 +2930,7 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2932,10 +2938,10 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E117" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2943,10 +2949,10 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E118" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2954,10 +2960,10 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C119" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2965,7 +2971,7 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2973,13 +2979,13 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C121" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E121" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2987,13 +2993,13 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C122" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E122" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3001,10 +3007,10 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E123" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3012,10 +3018,10 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E124" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3023,10 +3029,10 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E125" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3034,10 +3040,10 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E126" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3045,10 +3051,10 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E127" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3056,10 +3062,10 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E128" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3067,10 +3073,10 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E129" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3078,10 +3084,10 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E130" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3089,10 +3095,10 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E131" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3100,10 +3106,10 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E132" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3111,10 +3117,10 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E133" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3122,10 +3128,10 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E134" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3133,10 +3139,10 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E135" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3144,10 +3150,10 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E136" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3155,661 +3161,672 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E137" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>418</v>
       </c>
       <c r="B138" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="E138" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E139" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E140" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E141" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E142" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>422</v>
       </c>
       <c r="B143" t="s">
-        <v>363</v>
+        <v>423</v>
       </c>
       <c r="E143" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B144" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E144" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B145" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E145" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B146" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E146" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B147" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E147" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B148" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="E148" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B149" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="E149" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E150" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B151" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E151" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B152" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E152" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>150</v>
-      </c>
-      <c r="C153" t="s">
-        <v>206</v>
+        <v>148</v>
+      </c>
+      <c r="B153" t="s">
+        <v>366</v>
       </c>
       <c r="E153" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>151</v>
-      </c>
-      <c r="B154" t="s">
-        <v>373</v>
+        <v>149</v>
+      </c>
+      <c r="C154" t="s">
+        <v>204</v>
       </c>
       <c r="E154" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B155" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E155" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>153</v>
-      </c>
-      <c r="C156" t="s">
-        <v>206</v>
+        <v>151</v>
+      </c>
+      <c r="B156" t="s">
+        <v>368</v>
       </c>
       <c r="E156" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>154</v>
-      </c>
-      <c r="B157" t="s">
-        <v>375</v>
+        <v>152</v>
+      </c>
+      <c r="C157" t="s">
+        <v>204</v>
       </c>
       <c r="E157" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>155</v>
-      </c>
-      <c r="C158" t="s">
-        <v>206</v>
+        <v>153</v>
+      </c>
+      <c r="B158" t="s">
+        <v>369</v>
       </c>
       <c r="E158" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>156</v>
-      </c>
-      <c r="B159" t="s">
-        <v>376</v>
+        <v>154</v>
+      </c>
+      <c r="C159" t="s">
+        <v>204</v>
       </c>
       <c r="E159" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>157</v>
-      </c>
-      <c r="C160" t="s">
-        <v>206</v>
+        <v>155</v>
+      </c>
+      <c r="B160" t="s">
+        <v>370</v>
       </c>
       <c r="E160" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>158</v>
-      </c>
-      <c r="B161" t="s">
-        <v>377</v>
+        <v>156</v>
+      </c>
+      <c r="C161" t="s">
+        <v>204</v>
       </c>
       <c r="E161" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>159</v>
-      </c>
-      <c r="C162" t="s">
-        <v>206</v>
+        <v>157</v>
+      </c>
+      <c r="B162" t="s">
+        <v>371</v>
       </c>
       <c r="E162" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>160</v>
-      </c>
-      <c r="B163" t="s">
-        <v>378</v>
+        <v>158</v>
+      </c>
+      <c r="C163" t="s">
+        <v>204</v>
       </c>
       <c r="E163" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>161</v>
-      </c>
-      <c r="C164" t="s">
-        <v>206</v>
+        <v>159</v>
+      </c>
+      <c r="B164" t="s">
+        <v>372</v>
       </c>
       <c r="E164" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>162</v>
-      </c>
-      <c r="B165" t="s">
-        <v>379</v>
+        <v>160</v>
+      </c>
+      <c r="C165" t="s">
+        <v>204</v>
       </c>
       <c r="E165" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>163</v>
-      </c>
-      <c r="C166" t="s">
-        <v>206</v>
+        <v>161</v>
+      </c>
+      <c r="B166" t="s">
+        <v>373</v>
       </c>
       <c r="E166" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>164</v>
-      </c>
-      <c r="B167" t="s">
-        <v>380</v>
+        <v>162</v>
+      </c>
+      <c r="C167" t="s">
+        <v>204</v>
       </c>
       <c r="E167" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>165</v>
-      </c>
-      <c r="C168" t="s">
-        <v>206</v>
+        <v>163</v>
+      </c>
+      <c r="B168" t="s">
+        <v>374</v>
       </c>
       <c r="E168" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C169" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E169" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>167</v>
-      </c>
-      <c r="B170" t="s">
-        <v>381</v>
+        <v>165</v>
+      </c>
+      <c r="C170" t="s">
+        <v>204</v>
       </c>
       <c r="E170" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>168</v>
-      </c>
-      <c r="C171" t="s">
-        <v>206</v>
+        <v>166</v>
+      </c>
+      <c r="B171" t="s">
+        <v>375</v>
       </c>
       <c r="E171" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>169</v>
-      </c>
-      <c r="B172" t="s">
-        <v>382</v>
+        <v>167</v>
+      </c>
+      <c r="C172" t="s">
+        <v>204</v>
       </c>
       <c r="E172" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>170</v>
-      </c>
-      <c r="C173" t="s">
-        <v>206</v>
+        <v>168</v>
+      </c>
+      <c r="B173" t="s">
+        <v>376</v>
       </c>
       <c r="E173" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>171</v>
-      </c>
-      <c r="B174" t="s">
-        <v>383</v>
+        <v>169</v>
+      </c>
+      <c r="C174" t="s">
+        <v>204</v>
       </c>
       <c r="E174" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>172</v>
-      </c>
-      <c r="C175" t="s">
-        <v>206</v>
+        <v>421</v>
+      </c>
+      <c r="B175" t="s">
+        <v>420</v>
       </c>
       <c r="E175" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>173</v>
-      </c>
-      <c r="B176" t="s">
-        <v>384</v>
+        <v>170</v>
+      </c>
+      <c r="C176" t="s">
+        <v>204</v>
       </c>
       <c r="E176" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>174</v>
-      </c>
-      <c r="C177" t="s">
-        <v>206</v>
+        <v>171</v>
+      </c>
+      <c r="B177" t="s">
+        <v>377</v>
       </c>
       <c r="E177" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>175</v>
-      </c>
-      <c r="B178" t="s">
-        <v>385</v>
+        <v>172</v>
+      </c>
+      <c r="C178" t="s">
+        <v>204</v>
       </c>
       <c r="E178" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>176</v>
-      </c>
-      <c r="C179" t="s">
-        <v>206</v>
+        <v>173</v>
+      </c>
+      <c r="B179" t="s">
+        <v>378</v>
       </c>
       <c r="E179" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>177</v>
-      </c>
-      <c r="B180" t="s">
-        <v>386</v>
+        <v>174</v>
+      </c>
+      <c r="C180" t="s">
+        <v>204</v>
       </c>
       <c r="E180" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>178</v>
-      </c>
-      <c r="C181" t="s">
-        <v>206</v>
+        <v>175</v>
+      </c>
+      <c r="B181" t="s">
+        <v>379</v>
       </c>
       <c r="E181" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>179</v>
-      </c>
-      <c r="B182" t="s">
-        <v>387</v>
+        <v>176</v>
+      </c>
+      <c r="C182" t="s">
+        <v>204</v>
       </c>
       <c r="E182" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>180</v>
-      </c>
-      <c r="C183" t="s">
-        <v>206</v>
+        <v>177</v>
+      </c>
+      <c r="B183" t="s">
+        <v>380</v>
       </c>
       <c r="E183" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>181</v>
-      </c>
-      <c r="B184" t="s">
-        <v>388</v>
+        <v>178</v>
+      </c>
+      <c r="C184" t="s">
+        <v>204</v>
       </c>
       <c r="E184" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>182</v>
-      </c>
-      <c r="C185" t="s">
-        <v>206</v>
+        <v>179</v>
+      </c>
+      <c r="B185" t="s">
+        <v>381</v>
       </c>
       <c r="E185" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>183</v>
-      </c>
-      <c r="B186" t="s">
-        <v>389</v>
+        <v>180</v>
+      </c>
+      <c r="C186" t="s">
+        <v>204</v>
       </c>
       <c r="E186" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>184</v>
-      </c>
-      <c r="C187" t="s">
-        <v>206</v>
+        <v>181</v>
+      </c>
+      <c r="B187" t="s">
+        <v>382</v>
       </c>
       <c r="E187" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>185</v>
-      </c>
-      <c r="B188" t="s">
-        <v>390</v>
+        <v>182</v>
+      </c>
+      <c r="C188" t="s">
+        <v>204</v>
       </c>
       <c r="E188" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>186</v>
-      </c>
-      <c r="C189" t="s">
-        <v>206</v>
+        <v>183</v>
+      </c>
+      <c r="B189" t="s">
+        <v>383</v>
       </c>
       <c r="E189" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>187</v>
-      </c>
-      <c r="B190" t="s">
-        <v>391</v>
+        <v>184</v>
+      </c>
+      <c r="C190" t="s">
+        <v>204</v>
       </c>
       <c r="E190" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>188</v>
-      </c>
-      <c r="C191" t="s">
-        <v>206</v>
+        <v>185</v>
+      </c>
+      <c r="B191" t="s">
+        <v>384</v>
       </c>
       <c r="E191" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>189</v>
-      </c>
-      <c r="B192" t="s">
-        <v>392</v>
+        <v>186</v>
+      </c>
+      <c r="C192" t="s">
+        <v>204</v>
       </c>
       <c r="E192" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B193" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E193" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B194" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E194" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B195" t="s">
-        <v>418</v>
+        <v>387</v>
+      </c>
+      <c r="E195" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B196" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B197" t="s">
-        <v>395</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>192</v>
+      </c>
+      <c r="B198" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/meta_variables.xlsx
+++ b/metadata/meta_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lina\STATISTIK\Projects\20210525_shfdb4\dm\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E66755-0718-4277-807C-2E090504CB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354320F7-0195-4A24-95C0-47AEF24AA227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="440">
   <si>
     <t>lopnr</t>
   </si>
@@ -379,9 +379,6 @@
     <t>sos_durationhf</t>
   </si>
   <si>
-    <t>sos_prevhosphf</t>
-  </si>
-  <si>
     <t>sos_location</t>
   </si>
   <si>
@@ -619,9 +616,6 @@
     <t>Unique patient id</t>
   </si>
   <si>
-    <t>If the post is a case (from SwedeHF) or control</t>
-  </si>
-  <si>
     <t>For internal use. If it is a post registred in the old or new (prior to April 2017) SwedeHF. Most index posts in old SwedeHF were migrated to new SwedeHF (New SHF migrated from old SHF)</t>
   </si>
   <si>
@@ -781,9 +775,6 @@
     <t>µmol/L</t>
   </si>
   <si>
-    <t>eGFR (CKD-EPI 2021)</t>
-  </si>
-  <si>
     <t>mL/min/1.73 m²</t>
   </si>
   <si>
@@ -1117,9 +1108,6 @@
     <t>Severe bleeding</t>
   </si>
   <si>
-    <t>Charlson comorbidity Index</t>
-  </si>
-  <si>
     <t>Heart failure hospitalization</t>
   </si>
   <si>
@@ -1292,6 +1280,66 @@
   </si>
   <si>
     <t>Pneumonia/Flue/Respiratory infection</t>
+  </si>
+  <si>
+    <t>sos_timeprevhosphf</t>
+  </si>
+  <si>
+    <t>Charlson Comorbidity Index</t>
+  </si>
+  <si>
+    <t>If the post is a case (from SwedeHF or NPR) or control</t>
+  </si>
+  <si>
+    <t>ncontrols</t>
+  </si>
+  <si>
+    <t>Number of controls for the case</t>
+  </si>
+  <si>
+    <t>lopnrcase</t>
+  </si>
+  <si>
+    <t>Unique patient id for the case the control goes together with (for cases the same as lopnr)</t>
+  </si>
+  <si>
+    <t>Defined as shf_sex == "Female" &amp; shf_hb &lt; 120 | shf_sex == "Male" &amp; shf_hb &lt; 130</t>
+  </si>
+  <si>
+    <t>eGFR</t>
+  </si>
+  <si>
+    <t>CKD-EPI 2021</t>
+  </si>
+  <si>
+    <t>shf_qol_cat</t>
+  </si>
+  <si>
+    <t>shf_sos_prevhfh1yr</t>
+  </si>
+  <si>
+    <t>Previous HFH &lt; 1 year</t>
+  </si>
+  <si>
+    <t>Either HFH according to NPR or shf_location = "In-patient"</t>
+  </si>
+  <si>
+    <t>Combined from shf_af, shf_ekg, sos_com_af</t>
+  </si>
+  <si>
+    <t>Combined from sos_com_ihd, shf_revasc, sos_com_pci, sos_com_cabg</t>
+  </si>
+  <si>
+    <t>Combined from shf_hypertentions, sos_com_hypertension</t>
+  </si>
+  <si>
+    <t>Combined from shf_diabetes, sos_com_diabetes</t>
+  </si>
+  <si>
+    <t>Combined from shf_valvedisease, sos_com_valvular</t>
+  </si>
+  <si>
+    <t>sos_com_charlsonci_cat</t>
   </si>
 </sst>
 </file>
@@ -1658,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:E203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,19 +1722,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1694,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1702,2131 +1750,2204 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>423</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>202</v>
+        <v>425</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" t="s">
-        <v>204</v>
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
-      </c>
-      <c r="E8" t="s">
-        <v>206</v>
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" t="s">
-        <v>208</v>
+        <v>394</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>399</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" t="s">
         <v>208</v>
-      </c>
-      <c r="D11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>395</v>
+      </c>
+      <c r="C13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>216</v>
+        <v>206</v>
+      </c>
+      <c r="E14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E17" t="s">
-        <v>223</v>
+        <v>213</v>
+      </c>
+      <c r="C17" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>215</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>218</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+      <c r="E20" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>400</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>231</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>401</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>209</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" t="s">
-        <v>235</v>
+        <v>226</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
-      </c>
-      <c r="C28" t="s">
-        <v>237</v>
-      </c>
-      <c r="E28" t="s">
-        <v>238</v>
+        <v>229</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>241</v>
-      </c>
-      <c r="C30" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>397</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>415</v>
+        <v>234</v>
       </c>
       <c r="C33" t="s">
-        <v>245</v>
+        <v>235</v>
+      </c>
+      <c r="E33" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>246</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
+      </c>
+      <c r="C34" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
-      </c>
-      <c r="D35" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D36" s="3"/>
+        <v>240</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>253</v>
-      </c>
-      <c r="C37" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>255</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D38" s="3"/>
+        <v>241</v>
+      </c>
+      <c r="C38" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>257</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
+      </c>
+      <c r="C39" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>258</v>
+        <v>411</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
-      </c>
-      <c r="D40" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D41" t="s">
-        <v>209</v>
+        <v>392</v>
+      </c>
+      <c r="E41" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>261</v>
-      </c>
-      <c r="C42" t="s">
-        <v>262</v>
-      </c>
-      <c r="D42" t="s">
-        <v>263</v>
+        <v>244</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>264</v>
-      </c>
-      <c r="D43" t="s">
-        <v>265</v>
+        <v>244</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>402</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>209</v>
+        <v>247</v>
+      </c>
+      <c r="C44" t="s">
+        <v>248</v>
+      </c>
+      <c r="D44" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>403</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>296</v>
-      </c>
-      <c r="D46" t="s">
-        <v>280</v>
+        <v>428</v>
+      </c>
+      <c r="C46" t="s">
+        <v>251</v>
       </c>
       <c r="E46" t="s">
-        <v>297</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>298</v>
+        <v>428</v>
       </c>
       <c r="C47" t="s">
-        <v>299</v>
-      </c>
-      <c r="D47" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="E47" t="s">
-        <v>300</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>404</v>
-      </c>
-      <c r="D48" t="s">
-        <v>280</v>
-      </c>
-      <c r="E48" t="s">
-        <v>301</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>405</v>
+        <v>254</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>266</v>
+        <v>255</v>
+      </c>
+      <c r="C50" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>267</v>
+        <v>256</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>268</v>
+        <v>258</v>
+      </c>
+      <c r="C52" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>269</v>
-      </c>
-      <c r="C53" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D53" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>271</v>
-      </c>
-      <c r="D54" t="s">
-        <v>232</v>
+        <v>398</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>272</v>
+        <v>399</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="D56" t="s">
-        <v>209</v>
+        <v>277</v>
+      </c>
+      <c r="E56" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="C57" t="s">
-        <v>270</v>
+        <v>296</v>
+      </c>
+      <c r="D57" t="s">
+        <v>277</v>
       </c>
       <c r="E57" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>400</v>
+      </c>
+      <c r="D58" t="s">
+        <v>277</v>
+      </c>
+      <c r="E58" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>277</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
-      </c>
-      <c r="C60" t="s">
-        <v>270</v>
-      </c>
-      <c r="E60" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>279</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E61" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="D61" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>281</v>
-      </c>
-      <c r="C62" t="s">
-        <v>270</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E62" s="1"/>
+        <v>265</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>282</v>
+        <v>266</v>
+      </c>
+      <c r="C63" t="s">
+        <v>267</v>
+      </c>
+      <c r="D63" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>283</v>
+        <v>268</v>
+      </c>
+      <c r="D64" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>285</v>
-      </c>
-      <c r="C66" t="s">
         <v>270</v>
       </c>
-      <c r="E66" t="s">
-        <v>275</v>
+      <c r="D66" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>286</v>
+        <v>271</v>
+      </c>
+      <c r="C67" t="s">
+        <v>267</v>
+      </c>
+      <c r="E67" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>287</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>289</v>
-      </c>
-      <c r="C69" t="s">
-        <v>270</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>290</v>
+        <v>275</v>
+      </c>
+      <c r="C70" t="s">
+        <v>267</v>
+      </c>
+      <c r="E70" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>291</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B71" t="s">
+        <v>276</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E72" t="s">
-        <v>293</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B72" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
-        <v>406</v>
-      </c>
-      <c r="D75" t="s">
-        <v>409</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>408</v>
-      </c>
-      <c r="D76" t="s">
-        <v>409</v>
+        <v>282</v>
+      </c>
+      <c r="C76" t="s">
+        <v>267</v>
+      </c>
+      <c r="E76" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>407</v>
-      </c>
-      <c r="C77" t="s">
-        <v>270</v>
-      </c>
-      <c r="D77" t="s">
-        <v>409</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>410</v>
-      </c>
-      <c r="D78" t="s">
-        <v>209</v>
+        <v>284</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B79" t="s">
-        <v>302</v>
+        <v>286</v>
+      </c>
+      <c r="C79" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E79" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>303</v>
-      </c>
-      <c r="D80" t="s">
-        <v>304</v>
-      </c>
-      <c r="E80" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>306</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E81" t="s">
-        <v>308</v>
+        <v>69</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>306</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>309</v>
+        <v>70</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="E82" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B83" t="s">
-        <v>311</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E83" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B84" t="s">
-        <v>313</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E84" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B85" t="s">
-        <v>315</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>307</v>
+        <v>402</v>
+      </c>
+      <c r="D85" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B86" t="s">
-        <v>316</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>307</v>
+        <v>404</v>
+      </c>
+      <c r="D86" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B87" t="s">
-        <v>317</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E87" t="s">
-        <v>318</v>
+        <v>403</v>
+      </c>
+      <c r="C87" t="s">
+        <v>267</v>
+      </c>
+      <c r="D87" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B88" t="s">
-        <v>319</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E88" t="s">
-        <v>320</v>
+        <v>406</v>
+      </c>
+      <c r="D88" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B89" t="s">
-        <v>321</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E89" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>322</v>
-      </c>
-      <c r="E90" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B91" t="s">
-        <v>324</v>
+        <v>300</v>
+      </c>
+      <c r="D91" t="s">
+        <v>301</v>
+      </c>
+      <c r="E91" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B92" t="s">
-        <v>325</v>
+        <v>303</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E92" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B93" t="s">
-        <v>326</v>
+        <v>303</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E93" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B94" t="s">
-        <v>327</v>
-      </c>
-      <c r="C94" t="s">
-        <v>328</v>
+        <v>308</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="E94" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B95" t="s">
-        <v>414</v>
-      </c>
-      <c r="C95" t="s">
-        <v>328</v>
+        <v>310</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="E95" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B96" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B97" t="s">
-        <v>215</v>
-      </c>
-      <c r="C97" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B98" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E98" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B99" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E99" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E100" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B101" t="s">
-        <v>246</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="E101" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B102" t="s">
-        <v>243</v>
-      </c>
-      <c r="C102" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>430</v>
+      </c>
+      <c r="B106" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>92</v>
+      </c>
+      <c r="B107" t="s">
+        <v>324</v>
+      </c>
+      <c r="C107" t="s">
+        <v>325</v>
+      </c>
+      <c r="E107" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>93</v>
+      </c>
+      <c r="B108" t="s">
+        <v>410</v>
+      </c>
+      <c r="C108" t="s">
+        <v>325</v>
+      </c>
+      <c r="E108" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
-        <v>327</v>
-      </c>
-      <c r="C104" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>413</v>
-      </c>
-      <c r="B105" t="s">
-        <v>414</v>
-      </c>
-      <c r="C105" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" t="s">
-        <v>253</v>
-      </c>
-      <c r="C106" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B109" t="s">
+        <v>324</v>
+      </c>
+      <c r="C109" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>409</v>
+      </c>
+      <c r="B110" t="s">
+        <v>410</v>
+      </c>
+      <c r="C110" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>431</v>
+      </c>
+      <c r="B111" t="s">
+        <v>432</v>
+      </c>
+      <c r="E111" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>104</v>
       </c>
-      <c r="B107" t="s">
-        <v>313</v>
-      </c>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>105</v>
-      </c>
-      <c r="B108" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>106</v>
-      </c>
-      <c r="B109" t="s">
-        <v>311</v>
-      </c>
-      <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>107</v>
-      </c>
-      <c r="B110" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>108</v>
-      </c>
-      <c r="B111" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>109</v>
-      </c>
       <c r="B112" t="s">
-        <v>325</v>
+        <v>310</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="E112" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B113" t="s">
-        <v>331</v>
+        <v>393</v>
+      </c>
+      <c r="E113" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B114" t="s">
-        <v>332</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C114" s="3"/>
       <c r="E114" t="s">
-        <v>333</v>
+        <v>436</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B115" t="s">
-        <v>334</v>
+        <v>303</v>
+      </c>
+      <c r="E115" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B116" t="s">
-        <v>335</v>
+        <v>313</v>
+      </c>
+      <c r="E116" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>336</v>
-      </c>
-      <c r="E117" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E118" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B119" t="s">
-        <v>340</v>
-      </c>
-      <c r="C119" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B120" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B121" t="s">
-        <v>228</v>
-      </c>
-      <c r="C121" t="s">
-        <v>204</v>
+        <v>333</v>
       </c>
       <c r="E121" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B122" t="s">
-        <v>343</v>
-      </c>
-      <c r="C122" t="s">
-        <v>204</v>
+        <v>335</v>
       </c>
       <c r="E122" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B123" t="s">
-        <v>222</v>
-      </c>
-      <c r="E123" t="s">
-        <v>344</v>
+        <v>337</v>
+      </c>
+      <c r="C123" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B124" t="s">
-        <v>311</v>
-      </c>
-      <c r="E124" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B125" t="s">
-        <v>306</v>
+        <v>226</v>
+      </c>
+      <c r="C125" t="s">
+        <v>202</v>
       </c>
       <c r="E125" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>420</v>
       </c>
       <c r="B126" t="s">
-        <v>345</v>
+        <v>340</v>
+      </c>
+      <c r="C126" t="s">
+        <v>202</v>
       </c>
       <c r="E126" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B127" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="E127" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B128" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="E128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B129" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="E129" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B130" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E130" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B131" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="E131" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B132" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E132" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B133" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="E133" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B134" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E134" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B135" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="E135" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B136" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E136" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B137" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="E137" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>418</v>
+        <v>130</v>
       </c>
       <c r="B138" t="s">
-        <v>419</v>
+        <v>348</v>
       </c>
       <c r="E138" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B139" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E139" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B140" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E140" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B141" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E141" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>138</v>
+        <v>414</v>
       </c>
       <c r="B142" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="E142" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>422</v>
+        <v>134</v>
       </c>
       <c r="B143" t="s">
-        <v>423</v>
+        <v>352</v>
       </c>
       <c r="E143" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B144" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E144" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B145" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E145" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B146" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E146" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>418</v>
       </c>
       <c r="B147" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="E147" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="E148" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B149" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="E149" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B150" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E150" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B151" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E151" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B152" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="E152" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B153" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="E153" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>149</v>
-      </c>
-      <c r="C154" t="s">
-        <v>204</v>
+        <v>144</v>
+      </c>
+      <c r="B154" t="s">
+        <v>360</v>
       </c>
       <c r="E154" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B155" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E155" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B156" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="E156" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>152</v>
-      </c>
-      <c r="C157" t="s">
-        <v>204</v>
+        <v>439</v>
+      </c>
+      <c r="B157" t="s">
+        <v>421</v>
       </c>
       <c r="E157" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B158" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E158" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C159" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E159" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B160" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E160" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>156</v>
-      </c>
-      <c r="C161" t="s">
-        <v>204</v>
+        <v>150</v>
+      </c>
+      <c r="B161" t="s">
+        <v>364</v>
       </c>
       <c r="E161" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>157</v>
-      </c>
-      <c r="B162" t="s">
-        <v>371</v>
+        <v>151</v>
+      </c>
+      <c r="C162" t="s">
+        <v>202</v>
       </c>
       <c r="E162" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>158</v>
-      </c>
-      <c r="C163" t="s">
-        <v>204</v>
+        <v>152</v>
+      </c>
+      <c r="B163" t="s">
+        <v>365</v>
       </c>
       <c r="E163" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>159</v>
-      </c>
-      <c r="B164" t="s">
-        <v>372</v>
+        <v>153</v>
+      </c>
+      <c r="C164" t="s">
+        <v>202</v>
       </c>
       <c r="E164" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>160</v>
-      </c>
-      <c r="C165" t="s">
-        <v>204</v>
+        <v>154</v>
+      </c>
+      <c r="B165" t="s">
+        <v>366</v>
       </c>
       <c r="E165" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>161</v>
-      </c>
-      <c r="B166" t="s">
-        <v>373</v>
+        <v>155</v>
+      </c>
+      <c r="C166" t="s">
+        <v>202</v>
       </c>
       <c r="E166" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>162</v>
-      </c>
-      <c r="C167" t="s">
-        <v>204</v>
+        <v>156</v>
+      </c>
+      <c r="B167" t="s">
+        <v>367</v>
       </c>
       <c r="E167" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>163</v>
-      </c>
-      <c r="B168" t="s">
-        <v>374</v>
+        <v>157</v>
+      </c>
+      <c r="C168" t="s">
+        <v>202</v>
       </c>
       <c r="E168" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>164</v>
-      </c>
-      <c r="C169" t="s">
-        <v>204</v>
+        <v>158</v>
+      </c>
+      <c r="B169" t="s">
+        <v>368</v>
       </c>
       <c r="E169" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C170" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E170" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B171" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E171" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C172" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E172" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B173" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E173" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C174" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E174" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>421</v>
-      </c>
-      <c r="B175" t="s">
-        <v>420</v>
+        <v>164</v>
+      </c>
+      <c r="C175" t="s">
+        <v>202</v>
       </c>
       <c r="E175" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>170</v>
-      </c>
-      <c r="C176" t="s">
-        <v>204</v>
+        <v>165</v>
+      </c>
+      <c r="B176" t="s">
+        <v>371</v>
       </c>
       <c r="E176" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>171</v>
-      </c>
-      <c r="B177" t="s">
-        <v>377</v>
+        <v>166</v>
+      </c>
+      <c r="C177" t="s">
+        <v>202</v>
       </c>
       <c r="E177" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>172</v>
-      </c>
-      <c r="C178" t="s">
-        <v>204</v>
+        <v>167</v>
+      </c>
+      <c r="B178" t="s">
+        <v>372</v>
       </c>
       <c r="E178" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>173</v>
-      </c>
-      <c r="B179" t="s">
-        <v>378</v>
+        <v>168</v>
+      </c>
+      <c r="C179" t="s">
+        <v>202</v>
       </c>
       <c r="E179" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>174</v>
-      </c>
-      <c r="C180" t="s">
-        <v>204</v>
+        <v>417</v>
+      </c>
+      <c r="B180" t="s">
+        <v>416</v>
       </c>
       <c r="E180" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>175</v>
-      </c>
-      <c r="B181" t="s">
-        <v>379</v>
+        <v>169</v>
+      </c>
+      <c r="C181" t="s">
+        <v>202</v>
       </c>
       <c r="E181" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>176</v>
-      </c>
-      <c r="C182" t="s">
-        <v>204</v>
+        <v>170</v>
+      </c>
+      <c r="B182" t="s">
+        <v>373</v>
       </c>
       <c r="E182" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>177</v>
-      </c>
-      <c r="B183" t="s">
-        <v>380</v>
+        <v>171</v>
+      </c>
+      <c r="C183" t="s">
+        <v>202</v>
       </c>
       <c r="E183" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>178</v>
-      </c>
-      <c r="C184" t="s">
-        <v>204</v>
+        <v>172</v>
+      </c>
+      <c r="B184" t="s">
+        <v>374</v>
       </c>
       <c r="E184" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>179</v>
-      </c>
-      <c r="B185" t="s">
-        <v>381</v>
+        <v>173</v>
+      </c>
+      <c r="C185" t="s">
+        <v>202</v>
       </c>
       <c r="E185" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>180</v>
-      </c>
-      <c r="C186" t="s">
-        <v>204</v>
+        <v>174</v>
+      </c>
+      <c r="B186" t="s">
+        <v>375</v>
       </c>
       <c r="E186" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>181</v>
-      </c>
-      <c r="B187" t="s">
-        <v>382</v>
+        <v>175</v>
+      </c>
+      <c r="C187" t="s">
+        <v>202</v>
       </c>
       <c r="E187" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>182</v>
-      </c>
-      <c r="C188" t="s">
-        <v>204</v>
+        <v>176</v>
+      </c>
+      <c r="B188" t="s">
+        <v>376</v>
       </c>
       <c r="E188" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>183</v>
-      </c>
-      <c r="B189" t="s">
-        <v>383</v>
+        <v>177</v>
+      </c>
+      <c r="C189" t="s">
+        <v>202</v>
       </c>
       <c r="E189" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>184</v>
-      </c>
-      <c r="C190" t="s">
-        <v>204</v>
+        <v>178</v>
+      </c>
+      <c r="B190" t="s">
+        <v>377</v>
       </c>
       <c r="E190" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>185</v>
-      </c>
-      <c r="B191" t="s">
-        <v>384</v>
+        <v>179</v>
+      </c>
+      <c r="C191" t="s">
+        <v>202</v>
       </c>
       <c r="E191" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>186</v>
-      </c>
-      <c r="C192" t="s">
-        <v>204</v>
+        <v>180</v>
+      </c>
+      <c r="B192" t="s">
+        <v>378</v>
       </c>
       <c r="E192" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>187</v>
-      </c>
-      <c r="B193" t="s">
-        <v>385</v>
+        <v>181</v>
+      </c>
+      <c r="C193" t="s">
+        <v>202</v>
       </c>
       <c r="E193" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B194" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E194" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>189</v>
-      </c>
-      <c r="B195" t="s">
-        <v>387</v>
+        <v>183</v>
+      </c>
+      <c r="C195" t="s">
+        <v>202</v>
       </c>
       <c r="E195" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B196" t="s">
-        <v>411</v>
+        <v>380</v>
+      </c>
+      <c r="E196" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>191</v>
-      </c>
-      <c r="B197" t="s">
-        <v>412</v>
+        <v>185</v>
+      </c>
+      <c r="C197" t="s">
+        <v>202</v>
+      </c>
+      <c r="E197" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B198" t="s">
-        <v>388</v>
+        <v>381</v>
+      </c>
+      <c r="E198" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>187</v>
+      </c>
+      <c r="B199" t="s">
+        <v>382</v>
+      </c>
+      <c r="E199" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>188</v>
+      </c>
+      <c r="B200" t="s">
+        <v>383</v>
+      </c>
+      <c r="E200" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>189</v>
+      </c>
+      <c r="B201" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>190</v>
+      </c>
+      <c r="B202" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>191</v>
+      </c>
+      <c r="B203" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/meta_variables.xlsx
+++ b/metadata/meta_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lina\STATISTIK\Projects\20210525_shfdb4\dm\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STATISTIK\Projects\20210525_shfdb4\dm\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354320F7-0195-4A24-95C0-47AEF24AA227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7522ADE-C285-4184-9070-F0F864597E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="484">
   <si>
     <t>lopnr</t>
   </si>
@@ -49,9 +49,6 @@
     <t>shf_ef</t>
   </si>
   <si>
-    <t>shf_eforg</t>
-  </si>
-  <si>
     <t>shf_ef_cat</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>shf_bmi</t>
   </si>
   <si>
-    <t>shf_bmiimp</t>
-  </si>
-  <si>
     <t>shf_nyha_cat</t>
   </si>
   <si>
@@ -529,9 +523,6 @@
     <t>sos_outtime_hosppneumonia</t>
   </si>
   <si>
-    <t>sos_outtime_hospkidney</t>
-  </si>
-  <si>
     <t>sos_out_hospcancer</t>
   </si>
   <si>
@@ -652,12 +643,6 @@
     <t>Latest recorded EF (not necessary during visit/hospitalization). However, this has for the later years, to a varying degree, been "original" EF (untreated) for shf_type = Index</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>EF recorded at first registration in SHF (shf_type = Index). This has for the later years, to a varying degree, been "original" EF (untreated)</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
@@ -1003,9 +988,6 @@
     <t>If missing height, it is imputed with the height from the last registration / patient</t>
   </si>
   <si>
-    <t>If missing height, it is imputed with the median height within age and sex</t>
-  </si>
-  <si>
     <t>Country of birth</t>
   </si>
   <si>
@@ -1207,9 +1189,6 @@
     <t>Type of visit</t>
   </si>
   <si>
-    <t>LVEF (original)</t>
-  </si>
-  <si>
     <t>Alcohol</t>
   </si>
   <si>
@@ -1249,12 +1228,6 @@
     <t>Composite Death/HFH</t>
   </si>
   <si>
-    <t>shf_bmiimp_cat</t>
-  </si>
-  <si>
-    <t>BMI (imputed)</t>
-  </si>
-  <si>
     <t>Hemoglobin</t>
   </si>
   <si>
@@ -1340,6 +1313,165 @@
   </si>
   <si>
     <t>sos_com_charlsonci_cat</t>
+  </si>
+  <si>
+    <t>shf_fatigue</t>
+  </si>
+  <si>
+    <t>shf_outofbreath</t>
+  </si>
+  <si>
+    <t>shf_mobility</t>
+  </si>
+  <si>
+    <t>shf_hygiene</t>
+  </si>
+  <si>
+    <t>shf_activities</t>
+  </si>
+  <si>
+    <t>shf_pain</t>
+  </si>
+  <si>
+    <t>shf_anxiety</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>Hygiene</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>Out of breath</t>
+  </si>
+  <si>
+    <t>Mobilty</t>
+  </si>
+  <si>
+    <t>Main activities</t>
+  </si>
+  <si>
+    <t>Anxiety/Depression</t>
+  </si>
+  <si>
+    <t>2008-02-01-</t>
+  </si>
+  <si>
+    <t>sos_outtime_hosprenal</t>
+  </si>
+  <si>
+    <t>shf_bpdia_dis</t>
+  </si>
+  <si>
+    <t>shf_bpsys_dis</t>
+  </si>
+  <si>
+    <t>shf_weight_dis</t>
+  </si>
+  <si>
+    <t>shf_weight_admvisit</t>
+  </si>
+  <si>
+    <t>shf_bpsys_admvisit</t>
+  </si>
+  <si>
+    <t>shf_bpdia_admvisit</t>
+  </si>
+  <si>
+    <t>For hospitalized patients value at discharge, if missing at admission</t>
+  </si>
+  <si>
+    <t>shf_heartrate_dis</t>
+  </si>
+  <si>
+    <t>shf_potassium_dis</t>
+  </si>
+  <si>
+    <t>shf_sodium_dis</t>
+  </si>
+  <si>
+    <t>shf_crea_dis</t>
+  </si>
+  <si>
+    <t>shf_ntprobnp_dis</t>
+  </si>
+  <si>
+    <t>shf_heartrate_admvisit</t>
+  </si>
+  <si>
+    <t>shf_hb_admvisit</t>
+  </si>
+  <si>
+    <t>shf_hb_dis</t>
+  </si>
+  <si>
+    <t>shf_potassium_admvisit</t>
+  </si>
+  <si>
+    <t>shf_sodium_admvisit</t>
+  </si>
+  <si>
+    <t>shf_crea_admvisit</t>
+  </si>
+  <si>
+    <t>shf_ntprobnp_admvisit</t>
+  </si>
+  <si>
+    <t>Weight at admission/visit</t>
+  </si>
+  <si>
+    <t>Weight at discharge  (hospitalized patients)</t>
+  </si>
+  <si>
+    <t>Systolic blood pressure at discharge  (hospitalized patients)</t>
+  </si>
+  <si>
+    <t>Diastolic blood pressure at discharge  (hospitalized patients)</t>
+  </si>
+  <si>
+    <t>Heart rate at discharge  (hospitalized patients)</t>
+  </si>
+  <si>
+    <t>Hemoglobin at discharge  (hospitalized patients)</t>
+  </si>
+  <si>
+    <t>Potassium at discharge  (hospitalized patients)</t>
+  </si>
+  <si>
+    <t>Sodium at discharge  (hospitalized patients)</t>
+  </si>
+  <si>
+    <t>Creatinine at discharge  (hospitalized patients)</t>
+  </si>
+  <si>
+    <t>NT-proBNP at discharge  (hospitalized patients)</t>
+  </si>
+  <si>
+    <t>Systolic blood pressure at admission/visit</t>
+  </si>
+  <si>
+    <t>Diastolic blood pressure at admission/visit</t>
+  </si>
+  <si>
+    <t>Heart rate at admission/visit</t>
+  </si>
+  <si>
+    <t>Hemoglobin at admission/visit</t>
+  </si>
+  <si>
+    <t>Potassium at admission/visit</t>
+  </si>
+  <si>
+    <t>Sodium at admission/visit</t>
+  </si>
+  <si>
+    <t>Creatinine at admission/visit</t>
+  </si>
+  <si>
+    <t>NT-proBNP at admission/visit</t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1410,6 +1542,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1706,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:E225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,19 +1857,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1742,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1750,23 +1885,23 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E4" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E5" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1774,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1782,10 +1917,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1793,10 +1928,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1804,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1812,10 +1947,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1823,16 +1958,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" t="s">
         <v>205</v>
-      </c>
-      <c r="C11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1840,13 +1975,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="s">
         <v>206</v>
-      </c>
-      <c r="E12" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1854,16 +1989,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>395</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1871,13 +2003,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" t="s">
-        <v>206</v>
-      </c>
-      <c r="E14" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1885,29 +2011,32 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>208</v>
+      </c>
+      <c r="C15" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17" t="s">
-        <v>214</v>
+        <v>210</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1915,10 +2044,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1926,10 +2055,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="E19" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1937,10 +2066,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1948,7 +2074,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1956,7 +2082,7 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1964,23 +2090,23 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>225</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,7 +2114,13 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>396</v>
+        <v>221</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1996,13 +2128,10 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2010,26 +2139,26 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>231</v>
+        <v>390</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2037,1921 +2166,2241 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>397</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>207</v>
+        <v>227</v>
+      </c>
+      <c r="C31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>450</v>
       </c>
       <c r="B32" t="s">
-        <v>232</v>
+        <v>466</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>228</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>449</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>467</v>
       </c>
       <c r="C33" t="s">
-        <v>235</v>
-      </c>
-      <c r="E33" t="s">
-        <v>236</v>
+        <v>228</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C34" t="s">
-        <v>238</v>
+        <v>230</v>
+      </c>
+      <c r="E34" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C35" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="E35" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>451</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>476</v>
+      </c>
+      <c r="C36" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>448</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="C37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="E38" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>452</v>
       </c>
       <c r="B39" t="s">
-        <v>241</v>
+        <v>477</v>
       </c>
       <c r="C39" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>447</v>
       </c>
       <c r="B40" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="C40" t="s">
-        <v>243</v>
+        <v>233</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>392</v>
-      </c>
-      <c r="E41" t="s">
-        <v>427</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>244</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
+      </c>
+      <c r="C43" t="s">
+        <v>237</v>
+      </c>
+      <c r="E43" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
-      </c>
-      <c r="D44" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>459</v>
       </c>
       <c r="B45" t="s">
-        <v>249</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D45" s="3"/>
+        <v>478</v>
+      </c>
+      <c r="C45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>454</v>
       </c>
       <c r="B46" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E46" t="s">
-        <v>429</v>
+        <v>237</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>460</v>
       </c>
       <c r="B48" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>479</v>
+      </c>
+      <c r="C48" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>461</v>
       </c>
       <c r="B49" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>253</v>
+        <v>471</v>
+      </c>
+      <c r="C49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" t="s">
-        <v>206</v>
-      </c>
-      <c r="D50" t="s">
-        <v>207</v>
+        <v>386</v>
+      </c>
+      <c r="E50" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>256</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D51" t="s">
-        <v>207</v>
+        <v>239</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E51" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" t="s">
-        <v>259</v>
-      </c>
-      <c r="D52" t="s">
-        <v>260</v>
+        <v>239</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>462</v>
       </c>
       <c r="B53" t="s">
-        <v>261</v>
-      </c>
-      <c r="D53" t="s">
-        <v>262</v>
+        <v>480</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>455</v>
       </c>
       <c r="B54" t="s">
-        <v>398</v>
+        <v>472</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>399</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>207</v>
+        <v>242</v>
+      </c>
+      <c r="C55" t="s">
+        <v>243</v>
+      </c>
+      <c r="D55" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>463</v>
       </c>
       <c r="B56" t="s">
-        <v>293</v>
-      </c>
-      <c r="D56" t="s">
-        <v>277</v>
-      </c>
-      <c r="E56" t="s">
-        <v>294</v>
+        <v>481</v>
+      </c>
+      <c r="C56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="B57" t="s">
-        <v>295</v>
+        <v>473</v>
       </c>
       <c r="C57" t="s">
-        <v>296</v>
-      </c>
-      <c r="D57" t="s">
-        <v>277</v>
-      </c>
-      <c r="E57" t="s">
-        <v>297</v>
+        <v>243</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>400</v>
-      </c>
-      <c r="D58" t="s">
-        <v>277</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="3"/>
       <c r="E58" t="s">
-        <v>298</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>464</v>
       </c>
       <c r="B59" t="s">
-        <v>401</v>
+        <v>482</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>457</v>
       </c>
       <c r="B60" t="s">
-        <v>263</v>
+        <v>474</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>264</v>
-      </c>
-      <c r="D61" t="s">
-        <v>230</v>
+        <v>419</v>
+      </c>
+      <c r="C61" t="s">
+        <v>246</v>
+      </c>
+      <c r="E61" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>265</v>
+        <v>419</v>
+      </c>
+      <c r="C62" t="s">
+        <v>246</v>
+      </c>
+      <c r="E62" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
-      </c>
-      <c r="C63" t="s">
-        <v>267</v>
-      </c>
-      <c r="D63" t="s">
-        <v>230</v>
+        <v>247</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>465</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
-      </c>
-      <c r="D64" t="s">
-        <v>230</v>
+        <v>483</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>458</v>
       </c>
       <c r="B65" t="s">
-        <v>269</v>
+        <v>475</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>270</v>
-      </c>
-      <c r="D66" t="s">
-        <v>207</v>
+        <v>249</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="C67" t="s">
-        <v>267</v>
-      </c>
-      <c r="E67" t="s">
-        <v>272</v>
+        <v>203</v>
+      </c>
+      <c r="D67" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>273</v>
+        <v>251</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D68" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
+        <v>253</v>
+      </c>
+      <c r="C69" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>275</v>
-      </c>
-      <c r="C70" t="s">
-        <v>267</v>
-      </c>
-      <c r="E70" t="s">
-        <v>272</v>
+        <v>256</v>
+      </c>
+      <c r="D70" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>276</v>
+        <v>391</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E71" s="1"/>
+        <v>204</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>278</v>
-      </c>
-      <c r="C72" t="s">
-        <v>267</v>
+        <v>392</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E72" s="1"/>
+        <v>204</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>279</v>
+        <v>288</v>
+      </c>
+      <c r="D73" t="s">
+        <v>272</v>
+      </c>
+      <c r="E73" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>280</v>
+        <v>290</v>
+      </c>
+      <c r="C74" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" t="s">
+        <v>272</v>
+      </c>
+      <c r="E74" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>281</v>
+        <v>393</v>
+      </c>
+      <c r="D75" t="s">
+        <v>272</v>
+      </c>
+      <c r="E75" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>282</v>
-      </c>
-      <c r="C76" t="s">
-        <v>267</v>
-      </c>
-      <c r="E76" t="s">
-        <v>272</v>
+        <v>394</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>284</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>285</v>
+        <v>259</v>
+      </c>
+      <c r="D78" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>286</v>
-      </c>
-      <c r="C79" t="s">
-        <v>267</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E79" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s">
-        <v>287</v>
+        <v>261</v>
+      </c>
+      <c r="C80" t="s">
+        <v>262</v>
+      </c>
+      <c r="D80" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>69</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>288</v>
+        <v>51</v>
+      </c>
+      <c r="B81" t="s">
+        <v>263</v>
+      </c>
+      <c r="D81" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>70</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E82" t="s">
-        <v>290</v>
+        <v>52</v>
+      </c>
+      <c r="B82" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>291</v>
+        <v>265</v>
+      </c>
+      <c r="D83" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>292</v>
+        <v>266</v>
+      </c>
+      <c r="C84" t="s">
+        <v>262</v>
+      </c>
+      <c r="E84" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B85" t="s">
-        <v>402</v>
-      </c>
-      <c r="D85" t="s">
-        <v>405</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>404</v>
-      </c>
-      <c r="D86" t="s">
-        <v>405</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>403</v>
+        <v>270</v>
       </c>
       <c r="C87" t="s">
+        <v>262</v>
+      </c>
+      <c r="E87" t="s">
         <v>267</v>
-      </c>
-      <c r="D87" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>406</v>
-      </c>
-      <c r="D88" t="s">
-        <v>207</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>299</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B91" t="s">
-        <v>300</v>
-      </c>
-      <c r="D91" t="s">
-        <v>301</v>
-      </c>
-      <c r="E91" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>303</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E92" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>303</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>306</v>
+        <v>277</v>
+      </c>
+      <c r="C93" t="s">
+        <v>262</v>
       </c>
       <c r="E93" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>308</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E94" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>310</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E95" t="s">
-        <v>311</v>
+        <v>279</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B96" t="s">
-        <v>312</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>304</v>
+        <v>281</v>
+      </c>
+      <c r="C96" t="s">
+        <v>262</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E96" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>313</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>85</v>
-      </c>
-      <c r="B98" t="s">
-        <v>314</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E98" t="s">
-        <v>315</v>
+        <v>68</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" t="s">
-        <v>316</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>304</v>
+        <v>69</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="E99" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>318</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E100" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B101" t="s">
-        <v>319</v>
-      </c>
-      <c r="E101" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B102" t="s">
-        <v>321</v>
+        <v>395</v>
+      </c>
+      <c r="D102" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B103" t="s">
-        <v>322</v>
+        <v>397</v>
+      </c>
+      <c r="D103" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>322</v>
+        <v>396</v>
+      </c>
+      <c r="C104" t="s">
+        <v>262</v>
+      </c>
+      <c r="D104" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B105" t="s">
-        <v>323</v>
+        <v>399</v>
+      </c>
+      <c r="D105" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="B106" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>324</v>
-      </c>
-      <c r="C107" t="s">
-        <v>325</v>
-      </c>
-      <c r="E107" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B108" t="s">
-        <v>410</v>
-      </c>
-      <c r="C108" t="s">
-        <v>325</v>
+        <v>295</v>
+      </c>
+      <c r="D108" t="s">
+        <v>296</v>
       </c>
       <c r="E108" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B109" t="s">
-        <v>324</v>
-      </c>
-      <c r="C109" t="s">
-        <v>325</v>
+        <v>298</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E109" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="B110" t="s">
-        <v>410</v>
-      </c>
-      <c r="C110" t="s">
-        <v>325</v>
+        <v>298</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E110" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="B111" t="s">
-        <v>432</v>
+        <v>303</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="E111" t="s">
-        <v>433</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B112" t="s">
-        <v>310</v>
-      </c>
-      <c r="C112" s="3"/>
+        <v>305</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="E112" t="s">
-        <v>434</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>393</v>
-      </c>
-      <c r="E113" t="s">
-        <v>435</v>
+        <v>307</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B114" t="s">
         <v>308</v>
       </c>
-      <c r="C114" s="3"/>
-      <c r="E114" t="s">
-        <v>436</v>
+      <c r="D114" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B115" t="s">
-        <v>303</v>
+        <v>309</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="E115" t="s">
-        <v>437</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B116" t="s">
-        <v>313</v>
+        <v>311</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="E116" t="s">
-        <v>438</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B117" t="s">
-        <v>328</v>
+        <v>313</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E117" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B118" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="E118" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B119" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B120" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B121" t="s">
-        <v>333</v>
-      </c>
-      <c r="E121" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B122" t="s">
-        <v>335</v>
-      </c>
-      <c r="E122" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>116</v>
+        <v>421</v>
       </c>
       <c r="B123" t="s">
-        <v>337</v>
-      </c>
-      <c r="C123" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>117</v>
+      <c r="A124" s="7" t="s">
+        <v>431</v>
       </c>
       <c r="B124" t="s">
-        <v>339</v>
+        <v>438</v>
+      </c>
+      <c r="D124" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>118</v>
+      <c r="A125" s="7" t="s">
+        <v>432</v>
       </c>
       <c r="B125" t="s">
-        <v>226</v>
-      </c>
-      <c r="C125" t="s">
-        <v>202</v>
-      </c>
-      <c r="E125" t="s">
-        <v>385</v>
+        <v>441</v>
+      </c>
+      <c r="D125" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>420</v>
+      <c r="A126" s="7" t="s">
+        <v>433</v>
       </c>
       <c r="B126" t="s">
-        <v>340</v>
-      </c>
-      <c r="C126" t="s">
-        <v>202</v>
-      </c>
-      <c r="E126" t="s">
-        <v>386</v>
+        <v>442</v>
+      </c>
+      <c r="D126" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>119</v>
+      <c r="A127" s="7" t="s">
+        <v>434</v>
       </c>
       <c r="B127" t="s">
-        <v>220</v>
-      </c>
-      <c r="E127" t="s">
-        <v>341</v>
+        <v>439</v>
+      </c>
+      <c r="D127" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>120</v>
+      <c r="A128" s="7" t="s">
+        <v>435</v>
       </c>
       <c r="B128" t="s">
-        <v>308</v>
-      </c>
-      <c r="E128" t="s">
-        <v>387</v>
+        <v>443</v>
+      </c>
+      <c r="D128" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>121</v>
+      <c r="A129" s="7" t="s">
+        <v>436</v>
       </c>
       <c r="B129" t="s">
-        <v>303</v>
-      </c>
-      <c r="E129" t="s">
-        <v>388</v>
+        <v>440</v>
+      </c>
+      <c r="D129" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>122</v>
+      <c r="A130" s="7" t="s">
+        <v>437</v>
       </c>
       <c r="B130" t="s">
-        <v>342</v>
-      </c>
-      <c r="E130" t="s">
-        <v>389</v>
+        <v>444</v>
+      </c>
+      <c r="D130" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B131" t="s">
-        <v>343</v>
+        <v>319</v>
+      </c>
+      <c r="C131" t="s">
+        <v>320</v>
       </c>
       <c r="E131" t="s">
-        <v>389</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B132" t="s">
-        <v>344</v>
-      </c>
-      <c r="E132" t="s">
-        <v>389</v>
+        <v>319</v>
+      </c>
+      <c r="C132" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>422</v>
       </c>
       <c r="B133" t="s">
-        <v>345</v>
+        <v>423</v>
       </c>
       <c r="E133" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B134" t="s">
-        <v>346</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C134" s="3"/>
       <c r="E134" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B135" t="s">
-        <v>314</v>
+        <v>387</v>
       </c>
       <c r="E135" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B136" t="s">
-        <v>347</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C136" s="3"/>
       <c r="E136" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B137" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="E137" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B138" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="E138" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>349</v>
-      </c>
-      <c r="E139" t="s">
-        <v>389</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B140" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="E140" t="s">
-        <v>389</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B141" t="s">
-        <v>351</v>
-      </c>
-      <c r="E141" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>414</v>
+        <v>111</v>
       </c>
       <c r="B142" t="s">
-        <v>415</v>
-      </c>
-      <c r="E142" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B143" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="E143" t="s">
-        <v>389</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B144" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="E144" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B145" t="s">
-        <v>354</v>
-      </c>
-      <c r="E145" t="s">
-        <v>389</v>
+        <v>331</v>
+      </c>
+      <c r="C145" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>355</v>
-      </c>
-      <c r="E146" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>418</v>
+        <v>116</v>
       </c>
       <c r="B147" t="s">
-        <v>419</v>
+        <v>221</v>
+      </c>
+      <c r="C147" t="s">
+        <v>199</v>
       </c>
       <c r="E147" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>138</v>
+        <v>411</v>
       </c>
       <c r="B148" t="s">
-        <v>356</v>
+        <v>334</v>
+      </c>
+      <c r="C148" t="s">
+        <v>199</v>
       </c>
       <c r="E148" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B149" t="s">
-        <v>357</v>
+        <v>215</v>
       </c>
       <c r="E149" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B150" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="E150" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B151" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
       <c r="E151" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B152" t="s">
-        <v>412</v>
+        <v>336</v>
       </c>
       <c r="E152" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B153" t="s">
-        <v>413</v>
+        <v>337</v>
       </c>
       <c r="E153" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B154" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="E154" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B155" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="E155" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B156" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="E156" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="B157" t="s">
-        <v>421</v>
+        <v>309</v>
       </c>
       <c r="E157" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B158" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="E158" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>148</v>
-      </c>
-      <c r="C159" t="s">
-        <v>202</v>
+        <v>127</v>
+      </c>
+      <c r="B159" t="s">
+        <v>305</v>
       </c>
       <c r="E159" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B160" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="E160" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B161" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="E161" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>151</v>
-      </c>
-      <c r="C162" t="s">
-        <v>202</v>
+        <v>130</v>
+      </c>
+      <c r="B162" t="s">
+        <v>344</v>
       </c>
       <c r="E162" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B163" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="E163" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>153</v>
-      </c>
-      <c r="C164" t="s">
-        <v>202</v>
+        <v>405</v>
+      </c>
+      <c r="B164" t="s">
+        <v>406</v>
       </c>
       <c r="E164" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B165" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="E165" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>155</v>
-      </c>
-      <c r="C166" t="s">
-        <v>202</v>
+        <v>133</v>
+      </c>
+      <c r="B166" t="s">
+        <v>347</v>
       </c>
       <c r="E166" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B167" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="E167" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>157</v>
-      </c>
-      <c r="C168" t="s">
-        <v>202</v>
+        <v>135</v>
+      </c>
+      <c r="B168" t="s">
+        <v>349</v>
       </c>
       <c r="E168" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>158</v>
+        <v>409</v>
       </c>
       <c r="B169" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="E169" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>159</v>
-      </c>
-      <c r="C170" t="s">
-        <v>202</v>
+        <v>136</v>
+      </c>
+      <c r="B170" t="s">
+        <v>350</v>
       </c>
       <c r="E170" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B171" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="E171" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>161</v>
-      </c>
-      <c r="C172" t="s">
-        <v>202</v>
+        <v>138</v>
+      </c>
+      <c r="B172" t="s">
+        <v>352</v>
       </c>
       <c r="E172" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B173" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="E173" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>163</v>
-      </c>
-      <c r="C174" t="s">
-        <v>202</v>
+        <v>140</v>
+      </c>
+      <c r="B174" t="s">
+        <v>403</v>
       </c>
       <c r="E174" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>164</v>
-      </c>
-      <c r="C175" t="s">
-        <v>202</v>
+        <v>141</v>
+      </c>
+      <c r="B175" t="s">
+        <v>404</v>
       </c>
       <c r="E175" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B176" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E176" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>166</v>
-      </c>
-      <c r="C177" t="s">
-        <v>202</v>
+        <v>143</v>
+      </c>
+      <c r="B177" t="s">
+        <v>355</v>
       </c>
       <c r="E177" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B178" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="E178" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>168</v>
-      </c>
-      <c r="C179" t="s">
-        <v>202</v>
+        <v>430</v>
+      </c>
+      <c r="B179" t="s">
+        <v>412</v>
       </c>
       <c r="E179" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>417</v>
+        <v>145</v>
       </c>
       <c r="B180" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="E180" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C181" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E181" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B182" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E182" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>171</v>
-      </c>
-      <c r="C183" t="s">
-        <v>202</v>
+        <v>148</v>
+      </c>
+      <c r="B183" t="s">
+        <v>358</v>
       </c>
       <c r="E183" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>172</v>
-      </c>
-      <c r="B184" t="s">
-        <v>374</v>
+        <v>149</v>
+      </c>
+      <c r="C184" t="s">
+        <v>199</v>
       </c>
       <c r="E184" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>173</v>
-      </c>
-      <c r="C185" t="s">
-        <v>202</v>
+        <v>150</v>
+      </c>
+      <c r="B185" t="s">
+        <v>359</v>
       </c>
       <c r="E185" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>174</v>
-      </c>
-      <c r="B186" t="s">
-        <v>375</v>
+        <v>151</v>
+      </c>
+      <c r="C186" t="s">
+        <v>199</v>
       </c>
       <c r="E186" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>175</v>
-      </c>
-      <c r="C187" t="s">
-        <v>202</v>
+        <v>152</v>
+      </c>
+      <c r="B187" t="s">
+        <v>360</v>
       </c>
       <c r="E187" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>176</v>
-      </c>
-      <c r="B188" t="s">
-        <v>376</v>
+        <v>153</v>
+      </c>
+      <c r="C188" t="s">
+        <v>199</v>
       </c>
       <c r="E188" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>177</v>
-      </c>
-      <c r="C189" t="s">
-        <v>202</v>
+        <v>154</v>
+      </c>
+      <c r="B189" t="s">
+        <v>361</v>
       </c>
       <c r="E189" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>178</v>
-      </c>
-      <c r="B190" t="s">
-        <v>377</v>
+        <v>155</v>
+      </c>
+      <c r="C190" t="s">
+        <v>199</v>
       </c>
       <c r="E190" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>179</v>
-      </c>
-      <c r="C191" t="s">
-        <v>202</v>
+        <v>156</v>
+      </c>
+      <c r="B191" t="s">
+        <v>362</v>
       </c>
       <c r="E191" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>180</v>
-      </c>
-      <c r="B192" t="s">
-        <v>378</v>
+        <v>157</v>
+      </c>
+      <c r="C192" t="s">
+        <v>199</v>
       </c>
       <c r="E192" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>181</v>
-      </c>
-      <c r="C193" t="s">
-        <v>202</v>
+        <v>158</v>
+      </c>
+      <c r="B193" t="s">
+        <v>363</v>
       </c>
       <c r="E193" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>182</v>
-      </c>
-      <c r="B194" t="s">
-        <v>379</v>
+        <v>159</v>
+      </c>
+      <c r="C194" t="s">
+        <v>199</v>
       </c>
       <c r="E194" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>183</v>
-      </c>
-      <c r="C195" t="s">
-        <v>202</v>
+        <v>160</v>
+      </c>
+      <c r="B195" t="s">
+        <v>364</v>
       </c>
       <c r="E195" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>184</v>
-      </c>
-      <c r="B196" t="s">
-        <v>380</v>
+        <v>161</v>
+      </c>
+      <c r="C196" t="s">
+        <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C197" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B198" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>187</v>
-      </c>
-      <c r="B199" t="s">
-        <v>382</v>
+        <v>164</v>
+      </c>
+      <c r="C199" t="s">
+        <v>199</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B200" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>189</v>
-      </c>
-      <c r="B201" t="s">
-        <v>407</v>
+        <v>166</v>
+      </c>
+      <c r="C201" t="s">
+        <v>199</v>
+      </c>
+      <c r="E201" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>190</v>
+        <v>408</v>
       </c>
       <c r="B202" t="s">
-        <v>408</v>
+        <v>407</v>
+      </c>
+      <c r="E202" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>191</v>
-      </c>
-      <c r="B203" t="s">
-        <v>384</v>
+        <v>446</v>
+      </c>
+      <c r="C203" t="s">
+        <v>199</v>
+      </c>
+      <c r="E203" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>167</v>
+      </c>
+      <c r="B204" t="s">
+        <v>367</v>
+      </c>
+      <c r="E204" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>168</v>
+      </c>
+      <c r="C205" t="s">
+        <v>199</v>
+      </c>
+      <c r="E205" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>169</v>
+      </c>
+      <c r="B206" t="s">
+        <v>368</v>
+      </c>
+      <c r="E206" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>170</v>
+      </c>
+      <c r="C207" t="s">
+        <v>199</v>
+      </c>
+      <c r="E207" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>171</v>
+      </c>
+      <c r="B208" t="s">
+        <v>369</v>
+      </c>
+      <c r="E208" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>172</v>
+      </c>
+      <c r="C209" t="s">
+        <v>199</v>
+      </c>
+      <c r="E209" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>173</v>
+      </c>
+      <c r="B210" t="s">
+        <v>370</v>
+      </c>
+      <c r="E210" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>174</v>
+      </c>
+      <c r="C211" t="s">
+        <v>199</v>
+      </c>
+      <c r="E211" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>175</v>
+      </c>
+      <c r="B212" t="s">
+        <v>371</v>
+      </c>
+      <c r="E212" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>176</v>
+      </c>
+      <c r="C213" t="s">
+        <v>199</v>
+      </c>
+      <c r="E213" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>177</v>
+      </c>
+      <c r="B214" t="s">
+        <v>372</v>
+      </c>
+      <c r="E214" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>178</v>
+      </c>
+      <c r="C215" t="s">
+        <v>199</v>
+      </c>
+      <c r="E215" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>179</v>
+      </c>
+      <c r="B216" t="s">
+        <v>373</v>
+      </c>
+      <c r="E216" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>180</v>
+      </c>
+      <c r="C217" t="s">
+        <v>199</v>
+      </c>
+      <c r="E217" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>181</v>
+      </c>
+      <c r="B218" t="s">
+        <v>374</v>
+      </c>
+      <c r="E218" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>182</v>
+      </c>
+      <c r="C219" t="s">
+        <v>199</v>
+      </c>
+      <c r="E219" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>183</v>
+      </c>
+      <c r="B220" t="s">
+        <v>375</v>
+      </c>
+      <c r="E220" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>184</v>
+      </c>
+      <c r="B221" t="s">
+        <v>376</v>
+      </c>
+      <c r="E221" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>185</v>
+      </c>
+      <c r="B222" t="s">
+        <v>377</v>
+      </c>
+      <c r="E222" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>186</v>
+      </c>
+      <c r="B223" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>187</v>
+      </c>
+      <c r="B224" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>188</v>
+      </c>
+      <c r="B225" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/metadata/meta_variables.xlsx
+++ b/metadata/meta_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STATISTIK\Projects\20210525_shfdb4\dm\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7522ADE-C285-4184-9070-F0F864597E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B588BA5-F6CD-4E45-9657-759714007A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="485">
   <si>
     <t>lopnr</t>
   </si>
@@ -772,9 +772,6 @@
     <t>BNP</t>
   </si>
   <si>
-    <t>Transferrin</t>
-  </si>
-  <si>
     <t>Ferritin</t>
   </si>
   <si>
@@ -1472,6 +1469,12 @@
   </si>
   <si>
     <t>NT-proBNP at admission/visit</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>Transferrin saturation</t>
   </si>
 </sst>
 </file>
@@ -1843,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,23 +1888,23 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4" t="s">
         <v>414</v>
-      </c>
-      <c r="E4" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E5" t="s">
         <v>416</v>
-      </c>
-      <c r="E5" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1947,7 +1950,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E10" t="s">
         <v>201</v>
@@ -2106,7 +2109,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,6 +2119,9 @@
       <c r="B26" t="s">
         <v>221</v>
       </c>
+      <c r="C26" t="s">
+        <v>483</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>222</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>204</v>
@@ -2172,15 +2178,15 @@
         <v>228</v>
       </c>
       <c r="E31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C32" t="s">
         <v>228</v>
@@ -2191,10 +2197,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C33" t="s">
         <v>228</v>
@@ -2228,15 +2234,15 @@
         <v>233</v>
       </c>
       <c r="E35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -2247,10 +2253,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C37" t="s">
         <v>233</v>
@@ -2270,15 +2276,15 @@
         <v>233</v>
       </c>
       <c r="E38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C39" t="s">
         <v>233</v>
@@ -2289,10 +2295,10 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -2328,7 +2334,7 @@
         <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2344,10 +2350,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C45" t="s">
         <v>237</v>
@@ -2358,10 +2364,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B46" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C46" t="s">
         <v>237</v>
@@ -2375,21 +2381,21 @@
         <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C47" t="s">
         <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B48" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C48" t="s">
         <v>238</v>
@@ -2400,10 +2406,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C49" t="s">
         <v>238</v>
@@ -2417,10 +2423,10 @@
         <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E50" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2437,7 +2443,7 @@
         <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2456,10 +2462,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>240</v>
@@ -2470,10 +2476,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B54" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>240</v>
@@ -2496,15 +2502,15 @@
         <v>225</v>
       </c>
       <c r="E55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C56" t="s">
         <v>243</v>
@@ -2515,10 +2521,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C57" t="s">
         <v>243</v>
@@ -2539,15 +2545,15 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B59" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>245</v>
@@ -2558,10 +2564,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B60" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>245</v>
@@ -2575,13 +2581,13 @@
         <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C61" t="s">
         <v>246</v>
       </c>
       <c r="E61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,13 +2595,13 @@
         <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C62" t="s">
         <v>246</v>
       </c>
       <c r="E62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2610,15 +2616,15 @@
       </c>
       <c r="D63" s="3"/>
       <c r="E63" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B64" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>248</v>
@@ -2629,10 +2635,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>248</v>
@@ -2657,7 +2663,7 @@
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>250</v>
+        <v>484</v>
       </c>
       <c r="C67" t="s">
         <v>203</v>
@@ -2671,10 +2677,10 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="D68" t="s">
         <v>204</v>
@@ -2685,13 +2691,13 @@
         <v>39</v>
       </c>
       <c r="B69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" t="s">
         <v>253</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>254</v>
-      </c>
-      <c r="D69" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2699,10 +2705,10 @@
         <v>40</v>
       </c>
       <c r="B70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" t="s">
         <v>256</v>
-      </c>
-      <c r="D70" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2710,7 +2716,7 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>204</v>
@@ -2721,7 +2727,7 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>204</v>
@@ -2732,13 +2738,13 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" t="s">
+        <v>271</v>
+      </c>
+      <c r="E73" t="s">
         <v>288</v>
-      </c>
-      <c r="D73" t="s">
-        <v>272</v>
-      </c>
-      <c r="E73" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2746,16 +2752,16 @@
         <v>44</v>
       </c>
       <c r="B74" t="s">
+        <v>289</v>
+      </c>
+      <c r="C74" t="s">
         <v>290</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>271</v>
+      </c>
+      <c r="E74" t="s">
         <v>291</v>
-      </c>
-      <c r="D74" t="s">
-        <v>272</v>
-      </c>
-      <c r="E74" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2763,13 +2769,13 @@
         <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D75" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2777,7 +2783,7 @@
         <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2785,7 +2791,7 @@
         <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2793,7 +2799,7 @@
         <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D78" t="s">
         <v>225</v>
@@ -2804,7 +2810,7 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2812,10 +2818,10 @@
         <v>50</v>
       </c>
       <c r="B80" t="s">
+        <v>260</v>
+      </c>
+      <c r="C80" t="s">
         <v>261</v>
-      </c>
-      <c r="C80" t="s">
-        <v>262</v>
       </c>
       <c r="D80" t="s">
         <v>225</v>
@@ -2826,7 +2832,7 @@
         <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D81" t="s">
         <v>225</v>
@@ -2837,7 +2843,7 @@
         <v>52</v>
       </c>
       <c r="B82" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2845,7 +2851,7 @@
         <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D83" t="s">
         <v>204</v>
@@ -2856,13 +2862,13 @@
         <v>54</v>
       </c>
       <c r="B84" t="s">
+        <v>265</v>
+      </c>
+      <c r="C84" t="s">
+        <v>261</v>
+      </c>
+      <c r="E84" t="s">
         <v>266</v>
-      </c>
-      <c r="C84" t="s">
-        <v>262</v>
-      </c>
-      <c r="E84" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2870,7 +2876,7 @@
         <v>55</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2878,7 +2884,7 @@
         <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2886,13 +2892,13 @@
         <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C87" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E87" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2900,10 +2906,10 @@
         <v>58</v>
       </c>
       <c r="B88" t="s">
+        <v>270</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="E88" s="1"/>
     </row>
@@ -2912,13 +2918,13 @@
         <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E89" s="1"/>
     </row>
@@ -2927,7 +2933,7 @@
         <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2935,7 +2941,7 @@
         <v>61</v>
       </c>
       <c r="B91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2943,7 +2949,7 @@
         <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2951,13 +2957,13 @@
         <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C93" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2965,7 +2971,7 @@
         <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2973,10 +2979,10 @@
         <v>65</v>
       </c>
       <c r="B95" t="s">
+        <v>278</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2984,16 +2990,16 @@
         <v>66</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C96" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E96" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3001,7 +3007,7 @@
         <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3009,7 +3015,7 @@
         <v>68</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3017,10 +3023,10 @@
         <v>69</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E99" t="s">
         <v>284</v>
-      </c>
-      <c r="E99" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3028,7 +3034,7 @@
         <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3036,7 +3042,7 @@
         <v>71</v>
       </c>
       <c r="B101" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,10 +3050,10 @@
         <v>72</v>
       </c>
       <c r="B102" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3055,10 +3061,10 @@
         <v>73</v>
       </c>
       <c r="B103" t="s">
+        <v>396</v>
+      </c>
+      <c r="D103" t="s">
         <v>397</v>
-      </c>
-      <c r="D103" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3066,13 +3072,13 @@
         <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D104" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3080,7 +3086,7 @@
         <v>75</v>
       </c>
       <c r="B105" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D105" t="s">
         <v>204</v>
@@ -3091,7 +3097,7 @@
         <v>76</v>
       </c>
       <c r="B106" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3099,7 +3105,7 @@
         <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3107,13 +3113,13 @@
         <v>77</v>
       </c>
       <c r="B108" t="s">
+        <v>294</v>
+      </c>
+      <c r="D108" t="s">
         <v>295</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>296</v>
-      </c>
-      <c r="E108" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3121,13 +3127,13 @@
         <v>78</v>
       </c>
       <c r="B109" t="s">
+        <v>297</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" t="s">
         <v>299</v>
-      </c>
-      <c r="E109" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3135,13 +3141,13 @@
         <v>79</v>
       </c>
       <c r="B110" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E110" t="s">
         <v>301</v>
-      </c>
-      <c r="E110" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3149,13 +3155,13 @@
         <v>80</v>
       </c>
       <c r="B111" t="s">
+        <v>302</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E111" t="s">
         <v>303</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E111" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3163,13 +3169,13 @@
         <v>81</v>
       </c>
       <c r="B112" t="s">
+        <v>304</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E112" t="s">
         <v>305</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E112" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3177,10 +3183,10 @@
         <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3188,10 +3194,10 @@
         <v>83</v>
       </c>
       <c r="B114" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3199,13 +3205,13 @@
         <v>84</v>
       </c>
       <c r="B115" t="s">
+        <v>308</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E115" t="s">
         <v>309</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E115" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3213,13 +3219,13 @@
         <v>85</v>
       </c>
       <c r="B116" t="s">
+        <v>310</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E116" t="s">
         <v>311</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E116" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3227,13 +3233,13 @@
         <v>86</v>
       </c>
       <c r="B117" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E117" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3241,10 +3247,10 @@
         <v>87</v>
       </c>
       <c r="B118" t="s">
+        <v>313</v>
+      </c>
+      <c r="E118" t="s">
         <v>314</v>
-      </c>
-      <c r="E118" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3252,7 +3258,7 @@
         <v>88</v>
       </c>
       <c r="B119" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3260,7 +3266,7 @@
         <v>89</v>
       </c>
       <c r="B120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3268,7 +3274,7 @@
         <v>107</v>
       </c>
       <c r="B121" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3276,92 +3282,92 @@
         <v>90</v>
       </c>
       <c r="B122" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B123" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B124" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D124" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D125" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D126" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B127" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D127" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B128" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D128" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B129" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D129" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B130" t="s">
+        <v>443</v>
+      </c>
+      <c r="D130" t="s">
         <v>444</v>
-      </c>
-      <c r="D130" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3369,13 +3375,13 @@
         <v>91</v>
       </c>
       <c r="B131" t="s">
+        <v>318</v>
+      </c>
+      <c r="C131" t="s">
         <v>319</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
         <v>320</v>
-      </c>
-      <c r="E131" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3383,21 +3389,21 @@
         <v>100</v>
       </c>
       <c r="B132" t="s">
+        <v>318</v>
+      </c>
+      <c r="C132" t="s">
         <v>319</v>
-      </c>
-      <c r="C132" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>421</v>
+      </c>
+      <c r="B133" t="s">
         <v>422</v>
       </c>
-      <c r="B133" t="s">
+      <c r="E133" t="s">
         <v>423</v>
-      </c>
-      <c r="E133" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3405,11 +3411,11 @@
         <v>102</v>
       </c>
       <c r="B134" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C134" s="3"/>
       <c r="E134" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3417,10 +3423,10 @@
         <v>103</v>
       </c>
       <c r="B135" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E135" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3428,11 +3434,11 @@
         <v>104</v>
       </c>
       <c r="B136" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C136" s="3"/>
       <c r="E136" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3440,10 +3446,10 @@
         <v>105</v>
       </c>
       <c r="B137" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E137" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3451,10 +3457,10 @@
         <v>106</v>
       </c>
       <c r="B138" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E138" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3462,7 +3468,7 @@
         <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3470,10 +3476,10 @@
         <v>109</v>
       </c>
       <c r="B140" t="s">
+        <v>322</v>
+      </c>
+      <c r="E140" t="s">
         <v>323</v>
-      </c>
-      <c r="E140" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3481,7 +3487,7 @@
         <v>110</v>
       </c>
       <c r="B141" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3489,7 +3495,7 @@
         <v>111</v>
       </c>
       <c r="B142" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3497,10 +3503,10 @@
         <v>112</v>
       </c>
       <c r="B143" t="s">
+        <v>326</v>
+      </c>
+      <c r="E143" t="s">
         <v>327</v>
-      </c>
-      <c r="E143" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3508,10 +3514,10 @@
         <v>113</v>
       </c>
       <c r="B144" t="s">
+        <v>328</v>
+      </c>
+      <c r="E144" t="s">
         <v>329</v>
-      </c>
-      <c r="E144" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3519,10 +3525,10 @@
         <v>114</v>
       </c>
       <c r="B145" t="s">
+        <v>330</v>
+      </c>
+      <c r="C145" t="s">
         <v>331</v>
-      </c>
-      <c r="C145" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3530,7 +3536,7 @@
         <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3544,21 +3550,21 @@
         <v>199</v>
       </c>
       <c r="E147" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B148" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C148" t="s">
         <v>199</v>
       </c>
       <c r="E148" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3569,7 +3575,7 @@
         <v>215</v>
       </c>
       <c r="E149" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3577,10 +3583,10 @@
         <v>118</v>
       </c>
       <c r="B150" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E150" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3588,10 +3594,10 @@
         <v>119</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E151" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3599,10 +3605,10 @@
         <v>120</v>
       </c>
       <c r="B152" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E152" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3610,10 +3616,10 @@
         <v>121</v>
       </c>
       <c r="B153" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E153" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3621,10 +3627,10 @@
         <v>122</v>
       </c>
       <c r="B154" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E154" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3632,10 +3638,10 @@
         <v>123</v>
       </c>
       <c r="B155" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E155" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3643,10 +3649,10 @@
         <v>124</v>
       </c>
       <c r="B156" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E156" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3654,10 +3660,10 @@
         <v>125</v>
       </c>
       <c r="B157" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E157" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3665,10 +3671,10 @@
         <v>126</v>
       </c>
       <c r="B158" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E158" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3676,10 +3682,10 @@
         <v>127</v>
       </c>
       <c r="B159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E159" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3687,10 +3693,10 @@
         <v>128</v>
       </c>
       <c r="B160" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E160" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3698,10 +3704,10 @@
         <v>129</v>
       </c>
       <c r="B161" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E161" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3709,10 +3715,10 @@
         <v>130</v>
       </c>
       <c r="B162" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E162" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3720,21 +3726,21 @@
         <v>131</v>
       </c>
       <c r="B163" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E163" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>404</v>
+      </c>
+      <c r="B164" t="s">
         <v>405</v>
       </c>
-      <c r="B164" t="s">
-        <v>406</v>
-      </c>
       <c r="E164" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3742,10 +3748,10 @@
         <v>132</v>
       </c>
       <c r="B165" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E165" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3753,10 +3759,10 @@
         <v>133</v>
       </c>
       <c r="B166" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E166" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3764,10 +3770,10 @@
         <v>134</v>
       </c>
       <c r="B167" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E167" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3775,21 +3781,21 @@
         <v>135</v>
       </c>
       <c r="B168" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E168" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>408</v>
+      </c>
+      <c r="B169" t="s">
         <v>409</v>
       </c>
-      <c r="B169" t="s">
-        <v>410</v>
-      </c>
       <c r="E169" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3797,10 +3803,10 @@
         <v>136</v>
       </c>
       <c r="B170" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E170" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3808,10 +3814,10 @@
         <v>137</v>
       </c>
       <c r="B171" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E171" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3819,10 +3825,10 @@
         <v>138</v>
       </c>
       <c r="B172" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E172" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3830,10 +3836,10 @@
         <v>139</v>
       </c>
       <c r="B173" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E173" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3841,10 +3847,10 @@
         <v>140</v>
       </c>
       <c r="B174" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E174" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3852,10 +3858,10 @@
         <v>141</v>
       </c>
       <c r="B175" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E175" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3863,10 +3869,10 @@
         <v>142</v>
       </c>
       <c r="B176" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3874,10 +3880,10 @@
         <v>143</v>
       </c>
       <c r="B177" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E177" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3885,21 +3891,21 @@
         <v>144</v>
       </c>
       <c r="B178" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E178" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B179" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E179" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -3907,10 +3913,10 @@
         <v>145</v>
       </c>
       <c r="B180" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E180" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -3921,7 +3927,7 @@
         <v>199</v>
       </c>
       <c r="E181" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -3929,10 +3935,10 @@
         <v>147</v>
       </c>
       <c r="B182" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E182" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -3940,10 +3946,10 @@
         <v>148</v>
       </c>
       <c r="B183" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E183" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -3954,7 +3960,7 @@
         <v>199</v>
       </c>
       <c r="E184" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -3962,10 +3968,10 @@
         <v>150</v>
       </c>
       <c r="B185" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E185" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -3976,7 +3982,7 @@
         <v>199</v>
       </c>
       <c r="E186" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -3984,10 +3990,10 @@
         <v>152</v>
       </c>
       <c r="B187" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E187" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -3998,7 +4004,7 @@
         <v>199</v>
       </c>
       <c r="E188" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4006,10 +4012,10 @@
         <v>154</v>
       </c>
       <c r="B189" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E189" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4020,7 +4026,7 @@
         <v>199</v>
       </c>
       <c r="E190" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4028,10 +4034,10 @@
         <v>156</v>
       </c>
       <c r="B191" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E191" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4042,7 +4048,7 @@
         <v>199</v>
       </c>
       <c r="E192" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -4050,10 +4056,10 @@
         <v>158</v>
       </c>
       <c r="B193" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4064,7 +4070,7 @@
         <v>199</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4072,10 +4078,10 @@
         <v>160</v>
       </c>
       <c r="B195" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4086,7 +4092,7 @@
         <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4097,7 +4103,7 @@
         <v>199</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -4105,10 +4111,10 @@
         <v>163</v>
       </c>
       <c r="B198" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4119,7 +4125,7 @@
         <v>199</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -4127,10 +4133,10 @@
         <v>165</v>
       </c>
       <c r="B200" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -4141,29 +4147,29 @@
         <v>199</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B202" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C203" t="s">
         <v>199</v>
       </c>
       <c r="E203" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -4171,10 +4177,10 @@
         <v>167</v>
       </c>
       <c r="B204" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E204" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -4185,7 +4191,7 @@
         <v>199</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -4193,10 +4199,10 @@
         <v>169</v>
       </c>
       <c r="B206" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E206" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4207,7 +4213,7 @@
         <v>199</v>
       </c>
       <c r="E207" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4215,10 +4221,10 @@
         <v>171</v>
       </c>
       <c r="B208" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E208" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4229,7 +4235,7 @@
         <v>199</v>
       </c>
       <c r="E209" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -4237,10 +4243,10 @@
         <v>173</v>
       </c>
       <c r="B210" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E210" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4251,7 +4257,7 @@
         <v>199</v>
       </c>
       <c r="E211" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -4259,10 +4265,10 @@
         <v>175</v>
       </c>
       <c r="B212" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E212" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4273,7 +4279,7 @@
         <v>199</v>
       </c>
       <c r="E213" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -4281,10 +4287,10 @@
         <v>177</v>
       </c>
       <c r="B214" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E214" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4295,7 +4301,7 @@
         <v>199</v>
       </c>
       <c r="E215" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -4303,10 +4309,10 @@
         <v>179</v>
       </c>
       <c r="B216" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E216" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -4317,7 +4323,7 @@
         <v>199</v>
       </c>
       <c r="E217" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4325,10 +4331,10 @@
         <v>181</v>
       </c>
       <c r="B218" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E218" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -4339,7 +4345,7 @@
         <v>199</v>
       </c>
       <c r="E219" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4347,10 +4353,10 @@
         <v>183</v>
       </c>
       <c r="B220" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E220" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -4358,10 +4364,10 @@
         <v>184</v>
       </c>
       <c r="B221" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E221" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -4369,10 +4375,10 @@
         <v>185</v>
       </c>
       <c r="B222" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E222" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4380,7 +4386,7 @@
         <v>186</v>
       </c>
       <c r="B223" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -4388,7 +4394,7 @@
         <v>187</v>
       </c>
       <c r="B224" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4396,7 +4402,7 @@
         <v>188</v>
       </c>
       <c r="B225" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/meta_variables.xlsx
+++ b/metadata/meta_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STATISTIK\Projects\20210525_shfdb4\dm\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B588BA5-F6CD-4E45-9657-759714007A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A90B7B1-35DA-41BB-BA4F-8CE531E0E9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="484">
   <si>
     <t>lopnr</t>
   </si>
@@ -751,9 +751,6 @@
     <t>Sodium</t>
   </si>
   <si>
-    <t>mmol/l</t>
-  </si>
-  <si>
     <t>Creatinine</t>
   </si>
   <si>
@@ -766,18 +763,12 @@
     <t>NT-proBNP</t>
   </si>
   <si>
-    <t>pg/ml</t>
-  </si>
-  <si>
     <t>BNP</t>
   </si>
   <si>
     <t>Ferritin</t>
   </si>
   <si>
-    <t>µg/l</t>
-  </si>
-  <si>
     <t>QRS width</t>
   </si>
   <si>
@@ -1000,9 +991,6 @@
     <t>Marital status</t>
   </si>
   <si>
-    <t>Family type</t>
-  </si>
-  <si>
     <t>Persons cohabitating without common children are recorded as single</t>
   </si>
   <si>
@@ -1475,6 +1463,15 @@
   </si>
   <si>
     <t>Transferrin saturation</t>
+  </si>
+  <si>
+    <t>pg/mL</t>
+  </si>
+  <si>
+    <t>µg/L</t>
+  </si>
+  <si>
+    <t>Family situation</t>
   </si>
 </sst>
 </file>
@@ -1846,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="J135" sqref="J135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,23 +1885,23 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1950,7 +1947,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E10" t="s">
         <v>201</v>
@@ -2109,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2120,7 +2117,7 @@
         <v>221</v>
       </c>
       <c r="C26" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>222</v>
@@ -2161,7 +2158,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>204</v>
@@ -2178,15 +2175,15 @@
         <v>228</v>
       </c>
       <c r="E31" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B32" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C32" t="s">
         <v>228</v>
@@ -2197,10 +2194,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B33" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C33" t="s">
         <v>228</v>
@@ -2234,15 +2231,15 @@
         <v>233</v>
       </c>
       <c r="E35" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B36" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -2253,10 +2250,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B37" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C37" t="s">
         <v>233</v>
@@ -2276,15 +2273,15 @@
         <v>233</v>
       </c>
       <c r="E38" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B39" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C39" t="s">
         <v>233</v>
@@ -2295,10 +2292,10 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -2314,6 +2311,9 @@
       <c r="B41" t="s">
         <v>235</v>
       </c>
+      <c r="C41" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -2322,6 +2322,9 @@
       <c r="B42" t="s">
         <v>235</v>
       </c>
+      <c r="C42" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -2334,7 +2337,7 @@
         <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2350,10 +2353,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B45" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C45" t="s">
         <v>237</v>
@@ -2364,10 +2367,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B46" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C46" t="s">
         <v>237</v>
@@ -2381,21 +2384,21 @@
         <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C47" t="s">
         <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B48" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C48" t="s">
         <v>238</v>
@@ -2406,10 +2409,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B49" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C49" t="s">
         <v>238</v>
@@ -2423,10 +2426,10 @@
         <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E50" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2443,7 +2446,7 @@
         <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,10 +2465,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>240</v>
@@ -2476,10 +2479,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B54" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>240</v>
@@ -2496,24 +2499,24 @@
         <v>242</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D55" t="s">
         <v>225</v>
       </c>
       <c r="E55" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B56" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>204</v>
@@ -2521,13 +2524,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B57" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>204</v>
@@ -2538,25 +2541,25 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
+        <v>243</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B59" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>204</v>
@@ -2564,13 +2567,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B60" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>204</v>
@@ -2581,13 +2584,13 @@
         <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E61" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2595,13 +2598,13 @@
         <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E62" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2609,25 +2612,25 @@
         <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>248</v>
+        <v>481</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B64" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>248</v>
+        <v>481</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>204</v>
@@ -2635,13 +2638,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>248</v>
+        <v>481</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>204</v>
@@ -2652,10 +2655,10 @@
         <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>248</v>
+        <v>481</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2663,7 +2666,7 @@
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C67" t="s">
         <v>203</v>
@@ -2677,10 +2680,10 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>251</v>
+        <v>482</v>
       </c>
       <c r="D68" t="s">
         <v>204</v>
@@ -2691,13 +2694,13 @@
         <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2705,10 +2708,10 @@
         <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D70" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2716,7 +2719,7 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>204</v>
@@ -2727,7 +2730,7 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>204</v>
@@ -2738,13 +2741,13 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D73" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E73" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2752,16 +2755,16 @@
         <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C74" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D74" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E74" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2769,13 +2772,13 @@
         <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D75" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E75" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2783,7 +2786,7 @@
         <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2791,7 +2794,7 @@
         <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2799,7 +2802,7 @@
         <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D78" t="s">
         <v>225</v>
@@ -2810,7 +2813,7 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2818,10 +2821,10 @@
         <v>50</v>
       </c>
       <c r="B80" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C80" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D80" t="s">
         <v>225</v>
@@ -2832,7 +2835,7 @@
         <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D81" t="s">
         <v>225</v>
@@ -2843,7 +2846,7 @@
         <v>52</v>
       </c>
       <c r="B82" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2851,7 +2854,7 @@
         <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D83" t="s">
         <v>204</v>
@@ -2862,13 +2865,13 @@
         <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E84" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2876,7 +2879,7 @@
         <v>55</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2884,7 +2887,7 @@
         <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2892,13 +2895,13 @@
         <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C87" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E87" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2906,10 +2909,10 @@
         <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E88" s="1"/>
     </row>
@@ -2918,13 +2921,13 @@
         <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C89" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E89" s="1"/>
     </row>
@@ -2933,7 +2936,7 @@
         <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2941,7 +2944,7 @@
         <v>61</v>
       </c>
       <c r="B91" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2949,7 +2952,7 @@
         <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2957,13 +2960,13 @@
         <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C93" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E93" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2971,7 +2974,7 @@
         <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2979,10 +2982,10 @@
         <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,16 +2993,16 @@
         <v>66</v>
       </c>
       <c r="B96" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E96" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3007,7 +3010,7 @@
         <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3015,7 +3018,7 @@
         <v>68</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3023,10 +3026,10 @@
         <v>69</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E99" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3034,7 +3037,7 @@
         <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3042,7 +3045,7 @@
         <v>71</v>
       </c>
       <c r="B101" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3050,10 +3053,10 @@
         <v>72</v>
       </c>
       <c r="B102" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D102" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3061,10 +3064,10 @@
         <v>73</v>
       </c>
       <c r="B103" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D103" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3072,13 +3075,13 @@
         <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C104" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D104" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3086,7 +3089,7 @@
         <v>75</v>
       </c>
       <c r="B105" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D105" t="s">
         <v>204</v>
@@ -3097,7 +3100,7 @@
         <v>76</v>
       </c>
       <c r="B106" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3105,7 +3108,7 @@
         <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3113,13 +3116,13 @@
         <v>77</v>
       </c>
       <c r="B108" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D108" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E108" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3127,13 +3130,13 @@
         <v>78</v>
       </c>
       <c r="B109" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E109" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3141,13 +3144,13 @@
         <v>79</v>
       </c>
       <c r="B110" t="s">
+        <v>294</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="E110" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3155,13 +3158,13 @@
         <v>80</v>
       </c>
       <c r="B111" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E111" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3169,13 +3172,13 @@
         <v>81</v>
       </c>
       <c r="B112" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E112" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3183,10 +3186,10 @@
         <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3194,10 +3197,10 @@
         <v>83</v>
       </c>
       <c r="B114" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3205,13 +3208,13 @@
         <v>84</v>
       </c>
       <c r="B115" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E115" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3219,13 +3222,13 @@
         <v>85</v>
       </c>
       <c r="B116" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E116" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3233,13 +3236,13 @@
         <v>86</v>
       </c>
       <c r="B117" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E117" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3247,10 +3250,10 @@
         <v>87</v>
       </c>
       <c r="B118" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E118" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3258,7 +3261,7 @@
         <v>88</v>
       </c>
       <c r="B119" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3266,7 +3269,7 @@
         <v>89</v>
       </c>
       <c r="B120" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3274,7 +3277,7 @@
         <v>107</v>
       </c>
       <c r="B121" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3282,92 +3285,92 @@
         <v>90</v>
       </c>
       <c r="B122" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B123" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B124" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D124" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B125" t="s">
+        <v>436</v>
+      </c>
+      <c r="D125" t="s">
         <v>440</v>
-      </c>
-      <c r="D125" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B126" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D126" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B127" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D127" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B128" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D128" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B129" t="s">
         <v>435</v>
       </c>
-      <c r="B129" t="s">
-        <v>439</v>
-      </c>
       <c r="D129" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B130" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D130" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3375,13 +3378,13 @@
         <v>91</v>
       </c>
       <c r="B131" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C131" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E131" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3389,21 +3392,21 @@
         <v>100</v>
       </c>
       <c r="B132" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C132" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B133" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E133" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3411,11 +3414,11 @@
         <v>102</v>
       </c>
       <c r="B134" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C134" s="3"/>
       <c r="E134" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3423,10 +3426,10 @@
         <v>103</v>
       </c>
       <c r="B135" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E135" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3434,11 +3437,11 @@
         <v>104</v>
       </c>
       <c r="B136" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C136" s="3"/>
       <c r="E136" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3446,10 +3449,10 @@
         <v>105</v>
       </c>
       <c r="B137" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E137" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3457,10 +3460,10 @@
         <v>106</v>
       </c>
       <c r="B138" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E138" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3468,7 +3471,7 @@
         <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3476,10 +3479,10 @@
         <v>109</v>
       </c>
       <c r="B140" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E140" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3487,7 +3490,7 @@
         <v>110</v>
       </c>
       <c r="B141" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3495,7 +3498,7 @@
         <v>111</v>
       </c>
       <c r="B142" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3503,10 +3506,10 @@
         <v>112</v>
       </c>
       <c r="B143" t="s">
-        <v>326</v>
+        <v>483</v>
       </c>
       <c r="E143" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3514,10 +3517,10 @@
         <v>113</v>
       </c>
       <c r="B144" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E144" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3525,10 +3528,10 @@
         <v>114</v>
       </c>
       <c r="B145" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C145" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3536,7 +3539,7 @@
         <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3550,21 +3553,21 @@
         <v>199</v>
       </c>
       <c r="E147" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B148" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C148" t="s">
         <v>199</v>
       </c>
       <c r="E148" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3575,7 +3578,7 @@
         <v>215</v>
       </c>
       <c r="E149" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3583,10 +3586,10 @@
         <v>118</v>
       </c>
       <c r="B150" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E150" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3594,10 +3597,10 @@
         <v>119</v>
       </c>
       <c r="B151" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E151" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3605,10 +3608,10 @@
         <v>120</v>
       </c>
       <c r="B152" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E152" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3616,10 +3619,10 @@
         <v>121</v>
       </c>
       <c r="B153" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E153" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3627,10 +3630,10 @@
         <v>122</v>
       </c>
       <c r="B154" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E154" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3638,10 +3641,10 @@
         <v>123</v>
       </c>
       <c r="B155" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E155" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3649,10 +3652,10 @@
         <v>124</v>
       </c>
       <c r="B156" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E156" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3660,10 +3663,10 @@
         <v>125</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E157" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3671,10 +3674,10 @@
         <v>126</v>
       </c>
       <c r="B158" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E158" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3682,10 +3685,10 @@
         <v>127</v>
       </c>
       <c r="B159" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E159" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3693,10 +3696,10 @@
         <v>128</v>
       </c>
       <c r="B160" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E160" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3704,10 +3707,10 @@
         <v>129</v>
       </c>
       <c r="B161" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E161" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3715,10 +3718,10 @@
         <v>130</v>
       </c>
       <c r="B162" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E162" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3726,21 +3729,21 @@
         <v>131</v>
       </c>
       <c r="B163" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E163" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B164" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E164" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3748,10 +3751,10 @@
         <v>132</v>
       </c>
       <c r="B165" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E165" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3759,10 +3762,10 @@
         <v>133</v>
       </c>
       <c r="B166" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E166" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3770,10 +3773,10 @@
         <v>134</v>
       </c>
       <c r="B167" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E167" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3781,21 +3784,21 @@
         <v>135</v>
       </c>
       <c r="B168" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E168" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B169" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E169" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3803,10 +3806,10 @@
         <v>136</v>
       </c>
       <c r="B170" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E170" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3814,10 +3817,10 @@
         <v>137</v>
       </c>
       <c r="B171" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E171" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3825,10 +3828,10 @@
         <v>138</v>
       </c>
       <c r="B172" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E172" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3836,10 +3839,10 @@
         <v>139</v>
       </c>
       <c r="B173" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E173" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3847,10 +3850,10 @@
         <v>140</v>
       </c>
       <c r="B174" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E174" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3858,10 +3861,10 @@
         <v>141</v>
       </c>
       <c r="B175" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E175" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3869,10 +3872,10 @@
         <v>142</v>
       </c>
       <c r="B176" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E176" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3880,10 +3883,10 @@
         <v>143</v>
       </c>
       <c r="B177" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E177" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3891,21 +3894,21 @@
         <v>144</v>
       </c>
       <c r="B178" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E178" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B179" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E179" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -3913,10 +3916,10 @@
         <v>145</v>
       </c>
       <c r="B180" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E180" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -3927,7 +3930,7 @@
         <v>199</v>
       </c>
       <c r="E181" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -3935,10 +3938,10 @@
         <v>147</v>
       </c>
       <c r="B182" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E182" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -3946,10 +3949,10 @@
         <v>148</v>
       </c>
       <c r="B183" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E183" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -3960,7 +3963,7 @@
         <v>199</v>
       </c>
       <c r="E184" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -3968,10 +3971,10 @@
         <v>150</v>
       </c>
       <c r="B185" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E185" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -3982,7 +3985,7 @@
         <v>199</v>
       </c>
       <c r="E186" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -3990,10 +3993,10 @@
         <v>152</v>
       </c>
       <c r="B187" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E187" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4004,7 +4007,7 @@
         <v>199</v>
       </c>
       <c r="E188" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4012,10 +4015,10 @@
         <v>154</v>
       </c>
       <c r="B189" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E189" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4026,7 +4029,7 @@
         <v>199</v>
       </c>
       <c r="E190" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4034,10 +4037,10 @@
         <v>156</v>
       </c>
       <c r="B191" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E191" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4048,7 +4051,7 @@
         <v>199</v>
       </c>
       <c r="E192" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -4056,10 +4059,10 @@
         <v>158</v>
       </c>
       <c r="B193" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E193" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4070,7 +4073,7 @@
         <v>199</v>
       </c>
       <c r="E194" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4078,10 +4081,10 @@
         <v>160</v>
       </c>
       <c r="B195" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E195" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4092,7 +4095,7 @@
         <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4103,7 +4106,7 @@
         <v>199</v>
       </c>
       <c r="E197" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -4111,10 +4114,10 @@
         <v>163</v>
       </c>
       <c r="B198" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E198" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4125,7 +4128,7 @@
         <v>199</v>
       </c>
       <c r="E199" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -4133,10 +4136,10 @@
         <v>165</v>
       </c>
       <c r="B200" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E200" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -4147,29 +4150,29 @@
         <v>199</v>
       </c>
       <c r="E201" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B202" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E202" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C203" t="s">
         <v>199</v>
       </c>
       <c r="E203" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -4177,10 +4180,10 @@
         <v>167</v>
       </c>
       <c r="B204" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E204" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -4191,7 +4194,7 @@
         <v>199</v>
       </c>
       <c r="E205" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -4199,10 +4202,10 @@
         <v>169</v>
       </c>
       <c r="B206" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E206" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4213,7 +4216,7 @@
         <v>199</v>
       </c>
       <c r="E207" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4221,10 +4224,10 @@
         <v>171</v>
       </c>
       <c r="B208" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E208" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4235,7 +4238,7 @@
         <v>199</v>
       </c>
       <c r="E209" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -4243,10 +4246,10 @@
         <v>173</v>
       </c>
       <c r="B210" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E210" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4257,7 +4260,7 @@
         <v>199</v>
       </c>
       <c r="E211" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -4265,10 +4268,10 @@
         <v>175</v>
       </c>
       <c r="B212" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E212" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4279,7 +4282,7 @@
         <v>199</v>
       </c>
       <c r="E213" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -4287,10 +4290,10 @@
         <v>177</v>
       </c>
       <c r="B214" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E214" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4301,7 +4304,7 @@
         <v>199</v>
       </c>
       <c r="E215" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -4309,10 +4312,10 @@
         <v>179</v>
       </c>
       <c r="B216" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E216" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -4323,7 +4326,7 @@
         <v>199</v>
       </c>
       <c r="E217" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4331,10 +4334,10 @@
         <v>181</v>
       </c>
       <c r="B218" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E218" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -4345,7 +4348,7 @@
         <v>199</v>
       </c>
       <c r="E219" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4353,10 +4356,10 @@
         <v>183</v>
       </c>
       <c r="B220" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E220" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -4364,10 +4367,10 @@
         <v>184</v>
       </c>
       <c r="B221" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E221" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -4375,10 +4378,10 @@
         <v>185</v>
       </c>
       <c r="B222" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E222" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4386,7 +4389,7 @@
         <v>186</v>
       </c>
       <c r="B223" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -4394,7 +4397,7 @@
         <v>187</v>
       </c>
       <c r="B224" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4402,7 +4405,7 @@
         <v>188</v>
       </c>
       <c r="B225" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/meta_variables.xlsx
+++ b/metadata/meta_variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STATISTIK\Projects\20210525_shfdb4\dm\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A90B7B1-35DA-41BB-BA4F-8CE531E0E9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79713D2B-9F66-4690-AB58-F958808E234A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="486">
   <si>
     <t>lopnr</t>
   </si>
@@ -1472,6 +1472,12 @@
   </si>
   <si>
     <t>Family situation</t>
+  </si>
+  <si>
+    <t>sos_com_charlsonciage</t>
+  </si>
+  <si>
+    <t>Charlson Comorbidity Index age-adjusted</t>
   </si>
 </sst>
 </file>
@@ -1841,10 +1847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E225"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="J135" sqref="J135"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3913,10 +3919,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>145</v>
+        <v>484</v>
       </c>
       <c r="B180" t="s">
-        <v>351</v>
+        <v>485</v>
       </c>
       <c r="E180" t="s">
         <v>378</v>
@@ -3924,10 +3930,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>146</v>
-      </c>
-      <c r="C181" t="s">
-        <v>199</v>
+        <v>145</v>
+      </c>
+      <c r="B181" t="s">
+        <v>351</v>
       </c>
       <c r="E181" t="s">
         <v>378</v>
@@ -3935,10 +3941,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>147</v>
-      </c>
-      <c r="B182" t="s">
-        <v>352</v>
+        <v>146</v>
+      </c>
+      <c r="C182" t="s">
+        <v>199</v>
       </c>
       <c r="E182" t="s">
         <v>378</v>
@@ -3946,10 +3952,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B183" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E183" t="s">
         <v>378</v>
@@ -3957,10 +3963,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>149</v>
-      </c>
-      <c r="C184" t="s">
-        <v>199</v>
+        <v>148</v>
+      </c>
+      <c r="B184" t="s">
+        <v>353</v>
       </c>
       <c r="E184" t="s">
         <v>378</v>
@@ -3968,10 +3974,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>150</v>
-      </c>
-      <c r="B185" t="s">
-        <v>354</v>
+        <v>149</v>
+      </c>
+      <c r="C185" t="s">
+        <v>199</v>
       </c>
       <c r="E185" t="s">
         <v>378</v>
@@ -3979,10 +3985,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>151</v>
-      </c>
-      <c r="C186" t="s">
-        <v>199</v>
+        <v>150</v>
+      </c>
+      <c r="B186" t="s">
+        <v>354</v>
       </c>
       <c r="E186" t="s">
         <v>378</v>
@@ -3990,10 +3996,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>152</v>
-      </c>
-      <c r="B187" t="s">
-        <v>355</v>
+        <v>151</v>
+      </c>
+      <c r="C187" t="s">
+        <v>199</v>
       </c>
       <c r="E187" t="s">
         <v>378</v>
@@ -4001,10 +4007,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>153</v>
-      </c>
-      <c r="C188" t="s">
-        <v>199</v>
+        <v>152</v>
+      </c>
+      <c r="B188" t="s">
+        <v>355</v>
       </c>
       <c r="E188" t="s">
         <v>378</v>
@@ -4012,10 +4018,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>154</v>
-      </c>
-      <c r="B189" t="s">
-        <v>356</v>
+        <v>153</v>
+      </c>
+      <c r="C189" t="s">
+        <v>199</v>
       </c>
       <c r="E189" t="s">
         <v>378</v>
@@ -4023,10 +4029,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>155</v>
-      </c>
-      <c r="C190" t="s">
-        <v>199</v>
+        <v>154</v>
+      </c>
+      <c r="B190" t="s">
+        <v>356</v>
       </c>
       <c r="E190" t="s">
         <v>378</v>
@@ -4034,10 +4040,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>156</v>
-      </c>
-      <c r="B191" t="s">
-        <v>357</v>
+        <v>155</v>
+      </c>
+      <c r="C191" t="s">
+        <v>199</v>
       </c>
       <c r="E191" t="s">
         <v>378</v>
@@ -4045,10 +4051,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>157</v>
-      </c>
-      <c r="C192" t="s">
-        <v>199</v>
+        <v>156</v>
+      </c>
+      <c r="B192" t="s">
+        <v>357</v>
       </c>
       <c r="E192" t="s">
         <v>378</v>
@@ -4056,10 +4062,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>158</v>
-      </c>
-      <c r="B193" t="s">
-        <v>358</v>
+        <v>157</v>
+      </c>
+      <c r="C193" t="s">
+        <v>199</v>
       </c>
       <c r="E193" t="s">
         <v>378</v>
@@ -4067,10 +4073,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>159</v>
-      </c>
-      <c r="C194" t="s">
-        <v>199</v>
+        <v>158</v>
+      </c>
+      <c r="B194" t="s">
+        <v>358</v>
       </c>
       <c r="E194" t="s">
         <v>378</v>
@@ -4078,10 +4084,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>160</v>
-      </c>
-      <c r="B195" t="s">
-        <v>359</v>
+        <v>159</v>
+      </c>
+      <c r="C195" t="s">
+        <v>199</v>
       </c>
       <c r="E195" t="s">
         <v>378</v>
@@ -4089,10 +4095,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>161</v>
-      </c>
-      <c r="C196" t="s">
-        <v>199</v>
+        <v>160</v>
+      </c>
+      <c r="B196" t="s">
+        <v>359</v>
       </c>
       <c r="E196" t="s">
         <v>378</v>
@@ -4100,7 +4106,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C197" t="s">
         <v>199</v>
@@ -4111,10 +4117,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>163</v>
-      </c>
-      <c r="B198" t="s">
-        <v>360</v>
+        <v>162</v>
+      </c>
+      <c r="C198" t="s">
+        <v>199</v>
       </c>
       <c r="E198" t="s">
         <v>378</v>
@@ -4122,10 +4128,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>164</v>
-      </c>
-      <c r="C199" t="s">
-        <v>199</v>
+        <v>163</v>
+      </c>
+      <c r="B199" t="s">
+        <v>360</v>
       </c>
       <c r="E199" t="s">
         <v>378</v>
@@ -4133,10 +4139,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>165</v>
-      </c>
-      <c r="B200" t="s">
-        <v>361</v>
+        <v>164</v>
+      </c>
+      <c r="C200" t="s">
+        <v>199</v>
       </c>
       <c r="E200" t="s">
         <v>378</v>
@@ -4144,10 +4150,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>166</v>
-      </c>
-      <c r="C201" t="s">
-        <v>199</v>
+        <v>165</v>
+      </c>
+      <c r="B201" t="s">
+        <v>361</v>
       </c>
       <c r="E201" t="s">
         <v>378</v>
@@ -4155,10 +4161,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>403</v>
-      </c>
-      <c r="B202" t="s">
-        <v>402</v>
+        <v>166</v>
+      </c>
+      <c r="C202" t="s">
+        <v>199</v>
       </c>
       <c r="E202" t="s">
         <v>378</v>
@@ -4166,10 +4172,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>441</v>
-      </c>
-      <c r="C203" t="s">
-        <v>199</v>
+        <v>403</v>
+      </c>
+      <c r="B203" t="s">
+        <v>402</v>
       </c>
       <c r="E203" t="s">
         <v>378</v>
@@ -4177,10 +4183,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>167</v>
-      </c>
-      <c r="B204" t="s">
-        <v>362</v>
+        <v>441</v>
+      </c>
+      <c r="C204" t="s">
+        <v>199</v>
       </c>
       <c r="E204" t="s">
         <v>378</v>
@@ -4188,10 +4194,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>168</v>
-      </c>
-      <c r="C205" t="s">
-        <v>199</v>
+        <v>167</v>
+      </c>
+      <c r="B205" t="s">
+        <v>362</v>
       </c>
       <c r="E205" t="s">
         <v>378</v>
@@ -4199,10 +4205,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>169</v>
-      </c>
-      <c r="B206" t="s">
-        <v>363</v>
+        <v>168</v>
+      </c>
+      <c r="C206" t="s">
+        <v>199</v>
       </c>
       <c r="E206" t="s">
         <v>378</v>
@@ -4210,10 +4216,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>170</v>
-      </c>
-      <c r="C207" t="s">
-        <v>199</v>
+        <v>169</v>
+      </c>
+      <c r="B207" t="s">
+        <v>363</v>
       </c>
       <c r="E207" t="s">
         <v>378</v>
@@ -4221,10 +4227,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>171</v>
-      </c>
-      <c r="B208" t="s">
-        <v>364</v>
+        <v>170</v>
+      </c>
+      <c r="C208" t="s">
+        <v>199</v>
       </c>
       <c r="E208" t="s">
         <v>378</v>
@@ -4232,10 +4238,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>172</v>
-      </c>
-      <c r="C209" t="s">
-        <v>199</v>
+        <v>171</v>
+      </c>
+      <c r="B209" t="s">
+        <v>364</v>
       </c>
       <c r="E209" t="s">
         <v>378</v>
@@ -4243,10 +4249,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>173</v>
-      </c>
-      <c r="B210" t="s">
-        <v>365</v>
+        <v>172</v>
+      </c>
+      <c r="C210" t="s">
+        <v>199</v>
       </c>
       <c r="E210" t="s">
         <v>378</v>
@@ -4254,10 +4260,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>174</v>
-      </c>
-      <c r="C211" t="s">
-        <v>199</v>
+        <v>173</v>
+      </c>
+      <c r="B211" t="s">
+        <v>365</v>
       </c>
       <c r="E211" t="s">
         <v>378</v>
@@ -4265,10 +4271,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>175</v>
-      </c>
-      <c r="B212" t="s">
-        <v>366</v>
+        <v>174</v>
+      </c>
+      <c r="C212" t="s">
+        <v>199</v>
       </c>
       <c r="E212" t="s">
         <v>378</v>
@@ -4276,10 +4282,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>176</v>
-      </c>
-      <c r="C213" t="s">
-        <v>199</v>
+        <v>175</v>
+      </c>
+      <c r="B213" t="s">
+        <v>366</v>
       </c>
       <c r="E213" t="s">
         <v>378</v>
@@ -4287,10 +4293,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>177</v>
-      </c>
-      <c r="B214" t="s">
-        <v>367</v>
+        <v>176</v>
+      </c>
+      <c r="C214" t="s">
+        <v>199</v>
       </c>
       <c r="E214" t="s">
         <v>378</v>
@@ -4298,10 +4304,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>178</v>
-      </c>
-      <c r="C215" t="s">
-        <v>199</v>
+        <v>177</v>
+      </c>
+      <c r="B215" t="s">
+        <v>367</v>
       </c>
       <c r="E215" t="s">
         <v>378</v>
@@ -4309,10 +4315,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>179</v>
-      </c>
-      <c r="B216" t="s">
-        <v>368</v>
+        <v>178</v>
+      </c>
+      <c r="C216" t="s">
+        <v>199</v>
       </c>
       <c r="E216" t="s">
         <v>378</v>
@@ -4320,10 +4326,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>180</v>
-      </c>
-      <c r="C217" t="s">
-        <v>199</v>
+        <v>179</v>
+      </c>
+      <c r="B217" t="s">
+        <v>368</v>
       </c>
       <c r="E217" t="s">
         <v>378</v>
@@ -4331,10 +4337,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>181</v>
-      </c>
-      <c r="B218" t="s">
-        <v>369</v>
+        <v>180</v>
+      </c>
+      <c r="C218" t="s">
+        <v>199</v>
       </c>
       <c r="E218" t="s">
         <v>378</v>
@@ -4342,10 +4348,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>182</v>
-      </c>
-      <c r="C219" t="s">
-        <v>199</v>
+        <v>181</v>
+      </c>
+      <c r="B219" t="s">
+        <v>369</v>
       </c>
       <c r="E219" t="s">
         <v>378</v>
@@ -4353,10 +4359,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>183</v>
-      </c>
-      <c r="B220" t="s">
-        <v>370</v>
+        <v>182</v>
+      </c>
+      <c r="C220" t="s">
+        <v>199</v>
       </c>
       <c r="E220" t="s">
         <v>378</v>
@@ -4364,10 +4370,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B221" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E221" t="s">
         <v>378</v>
@@ -4375,10 +4381,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B222" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E222" t="s">
         <v>378</v>
@@ -4386,25 +4392,36 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B223" t="s">
-        <v>395</v>
+        <v>372</v>
+      </c>
+      <c r="E223" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B224" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>187</v>
+      </c>
+      <c r="B225" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>188</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" t="s">
         <v>373</v>
       </c>
     </row>

--- a/metadata/meta_variables.xlsx
+++ b/metadata/meta_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STATISTIK\Projects\20210525_shfdb4\dm\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\STATISTIK\Projects\20210525_shfdb4\dm\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79713D2B-9F66-4690-AB58-F958808E234A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2457C06C-F752-43E2-8931-D97EC0361683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="4320" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="489">
   <si>
     <t>lopnr</t>
   </si>
@@ -964,9 +964,6 @@
     <t>Follow-up referral speciality</t>
   </si>
   <si>
-    <t>QoL EQ-5D</t>
-  </si>
-  <si>
     <t>BMI</t>
   </si>
   <si>
@@ -1228,12 +1225,6 @@
     <t>Renal failure</t>
   </si>
   <si>
-    <t>Renal failure hospitalization</t>
-  </si>
-  <si>
-    <t>sos_out_hosprenal</t>
-  </si>
-  <si>
     <t>sos_com_respiratory</t>
   </si>
   <si>
@@ -1345,9 +1336,6 @@
     <t>2008-02-01-</t>
   </si>
   <si>
-    <t>sos_outtime_hosprenal</t>
-  </si>
-  <si>
     <t>shf_bpdia_dis</t>
   </si>
   <si>
@@ -1478,6 +1466,27 @@
   </si>
   <si>
     <t>Charlson Comorbidity Index age-adjusted</t>
+  </si>
+  <si>
+    <t>EQ5D-vas</t>
+  </si>
+  <si>
+    <t>sos_out_hosprenalacute</t>
+  </si>
+  <si>
+    <t>sos_outtime_hosprenalacute</t>
+  </si>
+  <si>
+    <t>Acute renal failure hospitalization</t>
+  </si>
+  <si>
+    <t>sos_out_renalendstage</t>
+  </si>
+  <si>
+    <t>sos_outtime_renalendstage</t>
+  </si>
+  <si>
+    <t>End-stage renal failure</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1549,6 +1558,10 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1847,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E226"/>
+  <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,23 +1904,23 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1953,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E10" t="s">
         <v>201</v>
@@ -2112,7 +2125,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2123,7 +2136,7 @@
         <v>221</v>
       </c>
       <c r="C26" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>222</v>
@@ -2164,7 +2177,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>204</v>
@@ -2181,15 +2194,15 @@
         <v>228</v>
       </c>
       <c r="E31" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B32" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C32" t="s">
         <v>228</v>
@@ -2200,10 +2213,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B33" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C33" t="s">
         <v>228</v>
@@ -2237,15 +2250,15 @@
         <v>233</v>
       </c>
       <c r="E35" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B36" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -2256,10 +2269,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B37" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C37" t="s">
         <v>233</v>
@@ -2279,15 +2292,15 @@
         <v>233</v>
       </c>
       <c r="E38" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C39" t="s">
         <v>233</v>
@@ -2298,10 +2311,10 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B40" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -2343,7 +2356,7 @@
         <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,10 +2372,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B45" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C45" t="s">
         <v>237</v>
@@ -2373,10 +2386,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B46" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C46" t="s">
         <v>237</v>
@@ -2390,21 +2403,21 @@
         <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C47" t="s">
         <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B48" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C48" t="s">
         <v>238</v>
@@ -2415,10 +2428,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B49" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C49" t="s">
         <v>238</v>
@@ -2432,10 +2445,10 @@
         <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E50" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2452,7 +2465,7 @@
         <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2471,10 +2484,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>240</v>
@@ -2485,10 +2498,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B54" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>240</v>
@@ -2511,15 +2524,15 @@
         <v>225</v>
       </c>
       <c r="E55" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B56" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C56" t="s">
         <v>240</v>
@@ -2530,10 +2543,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B57" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C57" t="s">
         <v>240</v>
@@ -2554,15 +2567,15 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B59" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>244</v>
@@ -2573,10 +2586,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B60" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>244</v>
@@ -2590,13 +2603,13 @@
         <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C61" t="s">
         <v>245</v>
       </c>
       <c r="E61" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2604,13 +2617,13 @@
         <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C62" t="s">
         <v>245</v>
       </c>
       <c r="E62" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2621,22 +2634,22 @@
         <v>246</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B64" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>204</v>
@@ -2644,13 +2657,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B65" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>204</v>
@@ -2664,7 +2677,7 @@
         <v>247</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2672,7 +2685,7 @@
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C67" t="s">
         <v>203</v>
@@ -2689,7 +2702,7 @@
         <v>248</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D68" t="s">
         <v>204</v>
@@ -2725,7 +2738,7 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>204</v>
@@ -2736,7 +2749,7 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>204</v>
@@ -2778,7 +2791,7 @@
         <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D75" t="s">
         <v>268</v>
@@ -2792,7 +2805,7 @@
         <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2821,6 +2834,9 @@
       <c r="B79" t="s">
         <v>256</v>
       </c>
+      <c r="D79" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -2862,9 +2878,6 @@
       <c r="B83" t="s">
         <v>261</v>
       </c>
-      <c r="D83" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -3059,10 +3072,10 @@
         <v>72</v>
       </c>
       <c r="B102" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D102" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3070,10 +3083,10 @@
         <v>73</v>
       </c>
       <c r="B103" t="s">
+        <v>391</v>
+      </c>
+      <c r="D103" t="s">
         <v>392</v>
-      </c>
-      <c r="D103" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3081,13 +3094,13 @@
         <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C104" t="s">
         <v>258</v>
       </c>
       <c r="D104" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3095,7 +3108,7 @@
         <v>75</v>
       </c>
       <c r="B105" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D105" t="s">
         <v>204</v>
@@ -3291,92 +3304,92 @@
         <v>90</v>
       </c>
       <c r="B122" t="s">
-        <v>314</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B123" t="s">
-        <v>314</v>
+        <v>482</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B124" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D124" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B125" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D125" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B126" t="s">
+        <v>434</v>
+      </c>
+      <c r="D126" t="s">
         <v>437</v>
-      </c>
-      <c r="D126" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B127" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D127" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B128" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D128" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B129" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D129" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B130" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D130" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3384,13 +3397,13 @@
         <v>91</v>
       </c>
       <c r="B131" t="s">
+        <v>314</v>
+      </c>
+      <c r="C131" t="s">
         <v>315</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
         <v>316</v>
-      </c>
-      <c r="E131" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3398,21 +3411,21 @@
         <v>100</v>
       </c>
       <c r="B132" t="s">
+        <v>314</v>
+      </c>
+      <c r="C132" t="s">
         <v>315</v>
-      </c>
-      <c r="C132" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B133" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E133" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3424,7 +3437,7 @@
       </c>
       <c r="C134" s="3"/>
       <c r="E134" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3432,10 +3445,10 @@
         <v>103</v>
       </c>
       <c r="B135" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E135" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3447,7 +3460,7 @@
       </c>
       <c r="C136" s="3"/>
       <c r="E136" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3458,7 +3471,7 @@
         <v>294</v>
       </c>
       <c r="E137" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3469,7 +3482,7 @@
         <v>304</v>
       </c>
       <c r="E138" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3477,7 +3490,7 @@
         <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3485,10 +3498,10 @@
         <v>109</v>
       </c>
       <c r="B140" t="s">
+        <v>318</v>
+      </c>
+      <c r="E140" t="s">
         <v>319</v>
-      </c>
-      <c r="E140" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3496,7 +3509,7 @@
         <v>110</v>
       </c>
       <c r="B141" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3504,7 +3517,7 @@
         <v>111</v>
       </c>
       <c r="B142" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3512,10 +3525,10 @@
         <v>112</v>
       </c>
       <c r="B143" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E143" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3523,10 +3536,10 @@
         <v>113</v>
       </c>
       <c r="B144" t="s">
+        <v>323</v>
+      </c>
+      <c r="E144" t="s">
         <v>324</v>
-      </c>
-      <c r="E144" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3534,10 +3547,10 @@
         <v>114</v>
       </c>
       <c r="B145" t="s">
+        <v>325</v>
+      </c>
+      <c r="C145" t="s">
         <v>326</v>
-      </c>
-      <c r="C145" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3545,7 +3558,7 @@
         <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3559,21 +3572,21 @@
         <v>199</v>
       </c>
       <c r="E147" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B148" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C148" t="s">
         <v>199</v>
       </c>
       <c r="E148" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3584,7 +3597,7 @@
         <v>215</v>
       </c>
       <c r="E149" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3595,7 +3608,7 @@
         <v>299</v>
       </c>
       <c r="E150" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3606,7 +3619,7 @@
         <v>294</v>
       </c>
       <c r="E151" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3614,10 +3627,10 @@
         <v>120</v>
       </c>
       <c r="B152" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E152" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3625,10 +3638,10 @@
         <v>121</v>
       </c>
       <c r="B153" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E153" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3636,10 +3649,10 @@
         <v>122</v>
       </c>
       <c r="B154" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E154" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3647,10 +3660,10 @@
         <v>123</v>
       </c>
       <c r="B155" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E155" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3658,10 +3671,10 @@
         <v>124</v>
       </c>
       <c r="B156" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3672,7 +3685,7 @@
         <v>305</v>
       </c>
       <c r="E157" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3680,10 +3693,10 @@
         <v>126</v>
       </c>
       <c r="B158" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E158" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3694,7 +3707,7 @@
         <v>301</v>
       </c>
       <c r="E159" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3702,10 +3715,10 @@
         <v>128</v>
       </c>
       <c r="B160" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E160" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3713,10 +3726,10 @@
         <v>129</v>
       </c>
       <c r="B161" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E161" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3724,10 +3737,10 @@
         <v>130</v>
       </c>
       <c r="B162" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E162" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3735,21 +3748,21 @@
         <v>131</v>
       </c>
       <c r="B163" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E163" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>399</v>
+      </c>
+      <c r="B164" t="s">
         <v>400</v>
       </c>
-      <c r="B164" t="s">
-        <v>401</v>
-      </c>
       <c r="E164" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3757,10 +3770,10 @@
         <v>132</v>
       </c>
       <c r="B165" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E165" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3768,10 +3781,10 @@
         <v>133</v>
       </c>
       <c r="B166" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E166" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3779,10 +3792,10 @@
         <v>134</v>
       </c>
       <c r="B167" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E167" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3790,21 +3803,21 @@
         <v>135</v>
       </c>
       <c r="B168" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E168" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B169" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E169" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3812,10 +3825,10 @@
         <v>136</v>
       </c>
       <c r="B170" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E170" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3823,10 +3836,10 @@
         <v>137</v>
       </c>
       <c r="B171" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E171" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3834,10 +3847,10 @@
         <v>138</v>
       </c>
       <c r="B172" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E172" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3845,10 +3858,10 @@
         <v>139</v>
       </c>
       <c r="B173" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E173" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3856,10 +3869,10 @@
         <v>140</v>
       </c>
       <c r="B174" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E174" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3867,10 +3880,10 @@
         <v>141</v>
       </c>
       <c r="B175" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E175" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,10 +3891,10 @@
         <v>142</v>
       </c>
       <c r="B176" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3889,10 +3902,10 @@
         <v>143</v>
       </c>
       <c r="B177" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E177" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3900,32 +3913,32 @@
         <v>144</v>
       </c>
       <c r="B178" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E178" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B179" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E179" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B180" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E180" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -3933,10 +3946,10 @@
         <v>145</v>
       </c>
       <c r="B181" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E181" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -3947,7 +3960,7 @@
         <v>199</v>
       </c>
       <c r="E182" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -3955,10 +3968,10 @@
         <v>147</v>
       </c>
       <c r="B183" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E183" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -3966,10 +3979,10 @@
         <v>148</v>
       </c>
       <c r="B184" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E184" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -3980,7 +3993,7 @@
         <v>199</v>
       </c>
       <c r="E185" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -3988,10 +4001,10 @@
         <v>150</v>
       </c>
       <c r="B186" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E186" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4002,7 +4015,7 @@
         <v>199</v>
       </c>
       <c r="E187" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4010,10 +4023,10 @@
         <v>152</v>
       </c>
       <c r="B188" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E188" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4024,7 +4037,7 @@
         <v>199</v>
       </c>
       <c r="E189" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4032,10 +4045,10 @@
         <v>154</v>
       </c>
       <c r="B190" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E190" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4046,7 +4059,7 @@
         <v>199</v>
       </c>
       <c r="E191" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4054,10 +4067,10 @@
         <v>156</v>
       </c>
       <c r="B192" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E192" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -4068,7 +4081,7 @@
         <v>199</v>
       </c>
       <c r="E193" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4076,10 +4089,10 @@
         <v>158</v>
       </c>
       <c r="B194" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E194" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4090,7 +4103,7 @@
         <v>199</v>
       </c>
       <c r="E195" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4098,10 +4111,10 @@
         <v>160</v>
       </c>
       <c r="B196" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E196" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4112,7 +4125,7 @@
         <v>199</v>
       </c>
       <c r="E197" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -4123,7 +4136,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4131,10 +4144,10 @@
         <v>163</v>
       </c>
       <c r="B199" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E199" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -4145,7 +4158,7 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -4153,10 +4166,10 @@
         <v>165</v>
       </c>
       <c r="B201" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E201" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -4167,262 +4180,284 @@
         <v>199</v>
       </c>
       <c r="E202" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>403</v>
+        <v>483</v>
       </c>
       <c r="B203" t="s">
-        <v>402</v>
+        <v>485</v>
       </c>
       <c r="E203" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>441</v>
+      <c r="A204" s="8" t="s">
+        <v>484</v>
       </c>
       <c r="C204" t="s">
         <v>199</v>
       </c>
       <c r="E204" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>167</v>
+      <c r="A205" s="9" t="s">
+        <v>486</v>
       </c>
       <c r="B205" t="s">
-        <v>362</v>
+        <v>488</v>
       </c>
       <c r="E205" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>168</v>
+      <c r="A206" s="9" t="s">
+        <v>487</v>
       </c>
       <c r="C206" t="s">
         <v>199</v>
       </c>
       <c r="E206" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B207" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E207" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C208" t="s">
         <v>199</v>
       </c>
       <c r="E208" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B209" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E209" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C210" t="s">
         <v>199</v>
       </c>
       <c r="E210" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B211" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E211" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C212" t="s">
         <v>199</v>
       </c>
       <c r="E212" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B213" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E213" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C214" t="s">
         <v>199</v>
       </c>
       <c r="E214" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B215" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E215" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C216" t="s">
         <v>199</v>
       </c>
       <c r="E216" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B217" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E217" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C218" t="s">
         <v>199</v>
       </c>
       <c r="E218" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B219" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E219" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C220" t="s">
         <v>199</v>
       </c>
       <c r="E220" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B221" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E221" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>184</v>
-      </c>
-      <c r="B222" t="s">
-        <v>371</v>
+        <v>182</v>
+      </c>
+      <c r="C222" t="s">
+        <v>199</v>
       </c>
       <c r="E222" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B223" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E223" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>184</v>
+      </c>
+      <c r="B224" t="s">
+        <v>370</v>
+      </c>
+      <c r="E224" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>185</v>
+      </c>
+      <c r="B225" t="s">
+        <v>371</v>
+      </c>
+      <c r="E225" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>186</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B226" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>187</v>
+      </c>
+      <c r="B227" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>187</v>
-      </c>
-      <c r="B225" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>188</v>
       </c>
-      <c r="B226" t="s">
-        <v>373</v>
+      <c r="B228" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
